--- a/xlsx/伊朗_intext.xlsx
+++ b/xlsx/伊朗_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1099">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1069">
   <si>
     <t>伊朗</t>
   </si>
@@ -29,7 +29,7 @@
     <t>伊朗国旗</t>
   </si>
   <si>
-    <t>政策_政策_美國_伊朗</t>
+    <t>政策_政策_美国_伊朗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%97%E5%9B%BD%E5%BE%BD</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/1989%E5%B9%B4%E4%BC%8A%E6%9C%97%E6%86%B2%E6%B3%95%E5%85%AC%E6%B0%91%E6%8A%95%E7%A5%A8</t>
   </si>
   <si>
-    <t>1989年伊朗憲法公民投票</t>
+    <t>1989年伊朗宪法公民投票</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%97%E5%9C%B0%E7%90%86</t>
@@ -239,7 +239,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%97%E9%87%8C%E4%BA%9E%E7%88%BE</t>
   </si>
   <si>
-    <t>伊朗里亞爾</t>
+    <t>伊朗里亚尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ISO_4217</t>
@@ -251,7 +251,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%97%E6%A8%99%E6%BA%96%E6%99%82%E9%96%93</t>
   </si>
   <si>
-    <t>伊朗標準時間</t>
+    <t>伊朗标准时间</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8F%E8%B0%83%E4%B8%96%E7%95%8C%E6%97%B6</t>
@@ -263,13 +263,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E5%85%89%E7%AF%80%E7%B4%84%E6%99%82%E9%96%93</t>
   </si>
   <si>
-    <t>日光節約時間</t>
+    <t>日光节约时间</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%97%E6%9B%86</t>
   </si>
   <si>
-    <t>伊朗曆</t>
+    <t>伊朗历</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%93%E8%B7%AF%E9%80%9A%E8%A1%8C%E6%96%B9%E5%90%91</t>
@@ -305,9 +305,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E8%AA%9E</t>
   </si>
   <si>
-    <t>波斯語</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF</t>
   </si>
   <si>
@@ -329,13 +326,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A3%8F%E6%B5%B7</t>
   </si>
   <si>
-    <t>裏海</t>
+    <t>里海</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E7%81%A3</t>
   </si>
   <si>
-    <t>波斯灣</t>
+    <t>波斯湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E6%B5%B7</t>
@@ -443,7 +440,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E8%98%AD%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>埃蘭王國</t>
+    <t>埃兰王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E5%BA%95%E7%8E%8B%E5%9B%BD</t>
@@ -545,13 +542,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%97%E5%B0%88%E5%AE%B6%E6%9C%83%E8%AD%B0</t>
   </si>
   <si>
-    <t>伊朗專家會議</t>
+    <t>伊朗专家会议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E6%A2%85%E5%85%A7%E4%BC%8A</t>
   </si>
   <si>
-    <t>哈梅內伊</t>
+    <t>哈梅内伊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%BB%E7%BB%9F%E5%86%85%E9%98%81%E5%88%B6</t>
@@ -611,7 +608,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%97%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>伊朗歷史</t>
+    <t>伊朗历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E5%8E%86%E5%8F%B2</t>
@@ -623,31 +620,28 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>波斯帝國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>西亞</t>
+    <t>西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E7%9F%B3%E5%99%A8%E6%99%82%E4%BB%A3</t>
   </si>
   <si>
-    <t>舊石器時代</t>
+    <t>旧石器时代</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%A6%E5%9C%8B</t>
   </si>
   <si>
-    <t>邦國</t>
+    <t>邦国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E8%98%AD</t>
   </si>
   <si>
-    <t>埃蘭</t>
+    <t>埃兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E8%BF%B0</t>
@@ -689,25 +683,22 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>阿拉伯帝國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%85%92%E6%B1%97%E5%9C%8B</t>
   </si>
   <si>
-    <t>伊兒汗國</t>
+    <t>伊儿汗国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%96%E6%9C%A8%E5%85%92%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>帖木兒帝國</t>
+    <t>帖木儿帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E9%9D%9E%E7%8E%8B%E6%9C%9D</t>
   </si>
   <si>
-    <t>薩非王朝</t>
+    <t>萨非王朝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94-%E5%8D%A1%E8%BF%AA%E8%A5%BF%E4%BA%9A%E4%BC%9A%E6%88%98</t>
@@ -725,7 +716,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E5%B0%8D%E6%B3%A2%E6%96%AF%E7%9A%84%E5%BE%81%E6%9C%8D</t>
   </si>
   <si>
-    <t>伊斯蘭對波斯的征服</t>
+    <t>伊斯兰对波斯的征服</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%AD%E9%A9%AC%E4%BA%9A%E7%8E%8B%E6%9C%9D</t>
@@ -755,15 +746,12 @@
     <t>https://zh.wikipedia.org/wiki/%E9%84%82%E5%9C%96%E6%9B%BC%E5%9C%9F%E8%80%B3%E5%85%B6%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>鄂圖曼土耳其帝國</t>
+    <t>鄂图曼土耳其帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E9%9D%9E%E7%8E%8B%E6%9C%9D</t>
   </si>
   <si>
-    <t>萨非王朝</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%9E%E5%BE%B7%E7%8E%8B%E6%9C%9D</t>
   </si>
   <si>
@@ -779,7 +767,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>俄羅斯帝國</t>
+    <t>俄罗斯帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1</t>
@@ -791,15 +779,12 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%9D%B1</t>
   </si>
   <si>
-    <t>中東</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BC%E8%90%A8%C2%B7%E6%B1%97</t>
   </si>
   <si>
@@ -809,13 +794,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%98%87%E5%85%A5%E4%BE%B5%E4%BC%8A%E6%9C%97</t>
   </si>
   <si>
-    <t>英蘇入侵伊朗</t>
+    <t>英苏入侵伊朗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%B3%88%E5%85%8B%E6%96%AF%E8%A1%8C%E5%8B%95</t>
   </si>
   <si>
-    <t>阿賈克斯行動</t>
+    <t>阿贾克斯行动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E8%89%B2%E9%9D%A9%E5%91%BD</t>
@@ -827,13 +812,10 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E9%BB%91%E8%98%AD</t>
   </si>
   <si>
-    <t>德黑蘭</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%86%E7%BD%95%E9%BB%98%E5%BE%B7%C2%B7%E7%A6%AE%E8%96%A9%C2%B7%E5%B7%B4%E5%88%97%E7%B6%AD</t>
   </si>
   <si>
-    <t>穆罕默德·禮薩·巴列維</t>
+    <t>穆罕默德·礼萨·巴列维</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%86%E7%BD%95%E9%BB%98%E5%BE%B7%C2%B7%E6%91%A9%E8%90%A8%E5%8F%B0</t>
@@ -851,7 +833,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%B8%E8%88%89%E6%AC%8A</t>
   </si>
   <si>
-    <t>選舉權</t>
+    <t>选举权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99</t>
@@ -869,25 +851,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E6%95%99</t>
   </si>
   <si>
-    <t>伊斯蘭教</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E7%BE%A9%E5%BE%B7%C2%B7%E9%AD%AF%E9%9C%8D%E6%8B%89%C2%B7%E9%9C%8D%E6%A2%85%E5%B0%BC</t>
   </si>
   <si>
-    <t>賽義德·魯霍拉·霍梅尼</t>
+    <t>赛义德·鲁霍拉·霍梅尼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%97%E4%BC%8A%E6%96%AF%E8%98%AD%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>伊朗伊斯蘭革命</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A9%E4%BC%8A%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>兩伊戰爭</t>
+    <t>两伊战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E5%A1%94%E7%B1%B3</t>
@@ -905,7 +881,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E9%A6%AC%E5%B3%B0</t>
   </si>
   <si>
-    <t>德馬峰</t>
+    <t>德马峰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/F-14</t>
@@ -917,7 +893,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A4%E7%9C%BE%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>群眾運動</t>
+    <t>群众运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%9B%E4%BA%8B%E7%AE%A1%E5%88%B6</t>
@@ -935,7 +911,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%97%E7%B8%BD%E7%90%86</t>
   </si>
   <si>
-    <t>伊朗總理</t>
+    <t>伊朗总理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AD%E4%BA%A4</t>
@@ -947,7 +923,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E9%81%94%E5%A7%86</t>
   </si>
   <si>
-    <t>薩達姆</t>
+    <t>萨达姆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E5%B8%83%E4%BB%80</t>
@@ -971,7 +947,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E7%81%A3%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>波斯灣戰爭</t>
+    <t>波斯湾战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%81%94%E8%A7%A3%E4%BD%93</t>
@@ -1031,55 +1007,37 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E8%BE%BE%E5%A7%86</t>
   </si>
   <si>
-    <t>萨达姆</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%A4%E4%BC%8A%E6%88%98%E4%BA%89</t>
   </si>
   <si>
-    <t>两伊战争</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2</t>
   </si>
   <si>
-    <t>亞洲</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E4%BA%9A</t>
   </si>
   <si>
-    <t>西亚</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%BE%8E%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>亞美尼亞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E5%BA%AB%E6%9B%BC</t>
   </si>
   <si>
-    <t>土庫曼</t>
+    <t>土库曼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A3%A1%E6%B5%B7</t>
   </si>
   <si>
-    <t>裡海</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%9B%BC%E7%81%A3</t>
   </si>
   <si>
-    <t>阿曼灣</t>
+    <t>阿曼湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%B2%B8%E7%B7%9A</t>
   </si>
   <si>
-    <t>海岸線</t>
+    <t>海岸线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%8E%9F</t>
@@ -1097,7 +1055,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E8%84%88</t>
   </si>
   <si>
-    <t>山脈</t>
+    <t>山脉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E5%8E%9F</t>
@@ -1109,13 +1067,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%8A%A0%E7%B4%A2%E5%B1%B1%E8%84%88</t>
   </si>
   <si>
-    <t>高加索山脈</t>
+    <t>高加索山脉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AD%E6%A0%BC%E7%BE%85%E6%96%AF%E5%B1%B1%E8%84%88</t>
   </si>
   <si>
-    <t>札格羅斯山脈</t>
+    <t>札格罗斯山脉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E5%B0%94%E5%B8%83%E5%B0%94%E5%A3%AB%E5%B1%B1%E8%84%89</t>
@@ -1133,7 +1091,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E7%90%86%E7%91%AA</t>
   </si>
   <si>
-    <t>烏理瑪</t>
+    <t>乌理玛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%AE%E4%BC%9A</t>
@@ -1181,9 +1139,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%87%8C%C2%B7%E5%93%88%E6%A2%85%E5%85%A7%E4%BC%8A</t>
   </si>
   <si>
-    <t>阿里·哈梅內伊</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E5%A4%AB%E6%A1%91%E8%B4%BE%E5%B0%BC</t>
   </si>
   <si>
@@ -1199,13 +1154,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E5%93%88%E9%82%81%E8%BF%AA-%E5%85%A7%E8%B3%88%E5%BE%B7</t>
   </si>
   <si>
-    <t>艾哈邁迪-內賈德</t>
+    <t>艾哈迈迪-内贾德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%97%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>伊朗軍事</t>
+    <t>伊朗军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%97%E6%A0%B8%E9%97%AE%E9%A2%98</t>
@@ -1223,13 +1178,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E9%9D%A9%E5%91%BD%E8%A1%9B%E9%9A%8A</t>
   </si>
   <si>
-    <t>伊斯蘭革命衛隊</t>
+    <t>伊斯兰革命卫队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BB%E6%93%8A%E6%A9%9F</t>
   </si>
   <si>
-    <t>攻擊機</t>
+    <t>攻击机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%97%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
@@ -1247,19 +1202,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E9%81%94%E6%AF%94%E5%8B%92%E7%9C%81</t>
   </si>
   <si>
-    <t>阿爾達比勒省</t>
+    <t>阿尔达比勒省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E4%BB%80%E7%88%BE%E7%9C%81</t>
   </si>
   <si>
-    <t>布什爾省</t>
+    <t>布什尔省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%81%B0%E5%93%88%E9%A6%AC%E5%93%88%E5%8B%92%EF%BC%8D%E5%B7%B4%E8%B5%AB%E8%92%82%E4%BA%9E%E9%87%8C%E7%9C%81</t>
   </si>
   <si>
-    <t>恰哈馬哈勒－巴赫蒂亞里省</t>
+    <t>恰哈马哈勒－巴赫蒂亚里省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E6%B3%95%E7%BD%95%E7%9C%81</t>
@@ -1271,13 +1226,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E7%88%BE%E6%96%AF%E7%9C%81</t>
   </si>
   <si>
-    <t>法爾斯省</t>
+    <t>法尔斯省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E8%98%AD%E7%9C%81</t>
   </si>
   <si>
-    <t>吉蘭省</t>
+    <t>吉兰省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%88%E5%8B%92%E6%96%AF%E5%9D%A6%E7%9C%81</t>
@@ -1289,7 +1244,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E9%A6%AC%E4%B8%B9%E7%9C%81</t>
   </si>
   <si>
-    <t>哈馬丹省</t>
+    <t>哈马丹省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9C%8D%E5%B0%94%E6%9C%A8%E5%85%B9%E7%94%98%E7%9C%81</t>
@@ -1307,31 +1262,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%88%BE%E6%9B%BC%E7%9C%81</t>
   </si>
   <si>
-    <t>克爾曼省</t>
+    <t>克尔曼省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%88%BE%E6%9B%BC%E6%B2%99%E6%B1%97%E7%9C%81</t>
   </si>
   <si>
-    <t>克爾曼沙汗省</t>
+    <t>克尔曼沙汗省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%83%A1%E9%BD%8A%E6%96%AF%E5%9D%A6%E7%9C%81</t>
   </si>
   <si>
-    <t>胡齊斯坦省</t>
+    <t>胡齐斯坦省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%90%89%E7%9B%A7%E8%80%B6%EF%BC%8D%E5%8D%9A%E9%9F%8B%E8%89%BE%E5%93%88%E9%82%81%E5%BE%B7%E7%9C%81</t>
   </si>
   <si>
-    <t>科吉盧耶－博韋艾哈邁德省</t>
+    <t>科吉卢耶－博韦艾哈迈德省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E7%88%BE%E5%BE%B7%E6%96%AF%E5%9D%A6%E7%9C%81</t>
   </si>
   <si>
-    <t>庫爾德斯坦省</t>
+    <t>库尔德斯坦省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E9%9B%B7%E6%96%AF%E5%9D%A6%E7%9C%81</t>
@@ -1349,19 +1304,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%B4%8A%E5%BE%B7%E8%98%AD%E7%9C%81</t>
   </si>
   <si>
-    <t>馬贊德蘭省</t>
+    <t>马赞德兰省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E8%8C%B2%E6%BA%AB%E7%9C%81</t>
   </si>
   <si>
-    <t>加茲溫省</t>
+    <t>加兹温省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E5%A7%86%E7%9C%81</t>
   </si>
   <si>
-    <t>庫姆省</t>
+    <t>库姆省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BC%E8%90%A8%E5%91%BC%E7%BD%97%E7%8F%8A%E7%9C%81</t>
@@ -1379,37 +1334,37 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8C%AB%E6%96%AF%E5%9D%A6%EF%BC%8D%E4%BF%BE%E8%B7%AF%E6%94%AF%E6%96%AF%E5%9D%A6%E7%9C%81</t>
   </si>
   <si>
-    <t>錫斯坦－俾路支斯坦省</t>
+    <t>锡斯坦－俾路支斯坦省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E8%8C%B2%E5%BE%B7%E7%9C%81</t>
   </si>
   <si>
-    <t>亞茲德省</t>
+    <t>亚兹德省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%8A%E8%A9%B9%E7%9C%81</t>
   </si>
   <si>
-    <t>贊詹省</t>
+    <t>赞詹省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%91%BC%E7%BE%85%E7%8F%8A%E7%9C%81</t>
   </si>
   <si>
-    <t>北呼羅珊省</t>
+    <t>北呼罗珊省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%91%BC%E7%BE%85%E7%8F%8A%E7%9C%81</t>
   </si>
   <si>
-    <t>南呼羅珊省</t>
+    <t>南呼罗珊省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E4%BA%9E%E5%A1%9E%E6%8B%9C%E7%84%B6%E7%9C%81</t>
   </si>
   <si>
-    <t>西亞塞拜然省</t>
+    <t>西亚塞拜然省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E9%98%BF%E5%A1%9E%E6%8B%9C%E7%96%86%E7%9C%81</t>
@@ -1421,7 +1376,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%A1%9E%E6%8B%9C%E7%84%B6</t>
   </si>
   <si>
-    <t>亞塞拜然</t>
+    <t>亚塞拜然</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%A8%81%E7%89%B9</t>
@@ -1433,43 +1388,40 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%83%8F%E5%9C%B0%E9%98%BF%E6%8B%89%E4%BC%AF</t>
   </si>
   <si>
-    <t>沙烏地阿拉伯</t>
+    <t>沙乌地阿拉伯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E9%BB%91%E8%98%AD%E7%9C%81</t>
   </si>
   <si>
-    <t>德黑蘭省</t>
+    <t>德黑兰省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9C%8D%E7%88%BE%E6%9C%A8%E8%8C%B2%E7%94%98%E7%9C%81</t>
   </si>
   <si>
-    <t>霍爾木茲甘省</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%9E%E5%A1%9E%E6%8B%9C%E7%96%86%E7%9C%81</t>
   </si>
   <si>
-    <t>東亞塞拜疆省</t>
+    <t>东亚塞拜疆省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E4%BA%9E%E5%A1%9E%E6%8B%9C%E7%96%86%E7%9C%81</t>
   </si>
   <si>
-    <t>西亞塞拜疆省</t>
+    <t>西亚塞拜疆省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%91%BC%E7%BE%85%E7%8F%8A%E7%9C%81</t>
   </si>
   <si>
-    <t>呼羅珊省</t>
+    <t>呼罗珊省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%97%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>伊朗經濟</t>
+    <t>伊朗经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%97%E7%9F%B3%E6%B2%B9</t>
@@ -1499,7 +1451,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%83%A1%E9%BD%8A%E6%96%AF%E5%9D%A6</t>
   </si>
   <si>
-    <t>胡齊斯坦</t>
+    <t>胡齐斯坦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%BA%E5%8F%A3</t>
@@ -1547,19 +1499,16 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E6%B2%B9%E8%BC%B8%E5%87%BA%E5%9C%8B%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>石油輸出國組織</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E5%85%83</t>
   </si>
   <si>
-    <t>歐元</t>
+    <t>欧元</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E5%9C%93</t>
   </si>
   <si>
-    <t>日圓</t>
+    <t>日圆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2011%E5%B9%B4%E4%BC%8A%E6%9C%97%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
@@ -1577,19 +1526,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E5%BA%AB%E6%9B%BC%E4%BA%BA</t>
   </si>
   <si>
-    <t>土庫曼人</t>
+    <t>土库曼人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%BE%8E%E5%B0%BC%E4%BA%9E%E4%BA%BA</t>
   </si>
   <si>
-    <t>亞美尼亞人</t>
+    <t>亚美尼亚人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E5%A4%AA%E4%BA%BA</t>
   </si>
   <si>
-    <t>猶太人</t>
+    <t>犹太人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E8%BF%B0%E4%BA%BA</t>
@@ -1607,7 +1556,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E4%BA%BA</t>
   </si>
   <si>
-    <t>喬治亞人</t>
+    <t>乔治亚人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%87%E5%B0%94%E5%85%8B%E6%96%AF%E4%BA%BA</t>
@@ -1619,7 +1568,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E5%8D%9C%E8%B3%BD%E4%BA%BA</t>
   </si>
   <si>
-    <t>吉卜賽人</t>
+    <t>吉卜赛人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E6%8B%89%E7%81%B0%E4%BA%BA</t>
@@ -1643,9 +1592,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E5%A4%AA%E6%95%99</t>
   </si>
   <si>
-    <t>猶太教</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%93%88%E4%BC%8A%E6%95%99</t>
   </si>
   <si>
@@ -1661,7 +1607,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BB%80%E5%93%88%E5%BE%B7</t>
   </si>
   <si>
-    <t>馬什哈德</t>
+    <t>马什哈德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%8E%E5%B8%82</t>
@@ -1673,7 +1619,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A8%AD%E6%8B%89%E5%AD%90</t>
   </si>
   <si>
-    <t>設拉子</t>
+    <t>设拉子</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E5%B0%94%E7%B1%B3%E8%80%B6</t>
@@ -1757,37 +1703,37 @@
     <t>https://zh.wikipedia.org/wiki/%E8%97%9D%E8%A1%93</t>
   </si>
   <si>
-    <t>藝術</t>
+    <t>艺术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%B3%E6%A8%82</t>
   </si>
   <si>
-    <t>音樂</t>
+    <t>音乐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%BA%E7%AF%89</t>
   </si>
   <si>
-    <t>建築</t>
+    <t>建筑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%A9%E6%AD%8C</t>
   </si>
   <si>
-    <t>詩歌</t>
+    <t>诗歌</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>哲學</t>
+    <t>哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%82%B3%E7%B5%B1</t>
   </si>
   <si>
-    <t>傳統</t>
+    <t>传统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%9D%E6%83%B3%E4%BD%93%E7%B3%BB</t>
@@ -1805,13 +1751,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%8F%B2%E8%8C%B2</t>
   </si>
   <si>
-    <t>哈菲茲</t>
+    <t>哈菲兹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AD%AF%E7%B1%B3</t>
   </si>
   <si>
-    <t>魯米</t>
+    <t>鲁米</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E7%8E%9B%E5%B0%94%C2%B7%E6%B5%B7%E4%BA%9A%E5%A7%86</t>
@@ -1823,7 +1769,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E7%88%BE%E5%A4%9A%E8%A5%BF</t>
   </si>
   <si>
-    <t>菲爾多西</t>
+    <t>菲尔多西</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%97%E7%94%B5%E5%BD%B1</t>
@@ -1835,7 +1781,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B7%B4%E6%96%AF%C2%B7%E5%A5%87%E4%BA%9E%E7%BE%85%E6%96%AF%E5%A1%94%E7%B1%B3</t>
   </si>
   <si>
-    <t>阿巴斯·奇亞羅斯塔米</t>
+    <t>阿巴斯·奇亚罗斯塔米</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%96%AF%E5%93%88%C2%B7%E6%B3%95%E5%93%88%E8%92%82</t>
@@ -1847,19 +1793,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%96%AF%E5%8D%A1%E6%9C%80%E4%BD%B3%E5%A4%96%E8%AA%9E%E7%89%87</t>
   </si>
   <si>
-    <t>奧斯卡最佳外語片</t>
+    <t>奥斯卡最佳外语片</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E9%9A%9B%E7%B6%B2%E8%B7%AF</t>
   </si>
   <si>
-    <t>網際網路</t>
+    <t>网际网路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E7%BE%A9</t>
   </si>
   <si>
-    <t>正義</t>
+    <t>正义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%B9%B3</t>
@@ -1871,7 +1817,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E5%90%BE%E8%82%89%E5%AD%9C%E7%AF%80</t>
   </si>
   <si>
-    <t>納吾肉孜節</t>
+    <t>纳吾肉孜节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%A5%E5%88%86</t>
@@ -1883,7 +1829,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%95%99%E7%A7%91%E6%96%87%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>聯合國教科文組織</t>
+    <t>联合国教科文组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E7%89%A9%E8%B4%A8%E6%96%87%E5%8C%96%E9%81%97%E4%BA%A7</t>
@@ -1913,7 +1859,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E4%BD%BF%E8%99%9F%E9%81%8B%E8%BC%89%E7%81%AB%E7%AE%AD</t>
   </si>
   <si>
-    <t>信使號運載火箭</t>
+    <t>信使号运载火箭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E6%9C%9B%E5%8F%B7%E5%8D%AB%E6%98%9F</t>
@@ -1931,7 +1877,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BF%83%E7%B8%AE%E9%88%BE</t>
   </si>
   <si>
-    <t>濃縮鈾</t>
+    <t>浓缩铀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9C%8D%E5%B0%94%E6%9C%A8%E5%85%B9%E6%B5%B7%E5%B3%A1</t>
@@ -1949,7 +1895,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E6%96%BC%E4%BC%8A%E6%9C%97%E6%A0%B8%E8%A8%88%E5%8A%83%E7%9A%84%E5%85%A8%E9%9D%A2%E5%8D%94%E8%AD%B0</t>
   </si>
   <si>
-    <t>關於伊朗核計劃的全面協議</t>
+    <t>关于伊朗核计划的全面协议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%97%E4%BA%A4%E9%80%9A</t>
@@ -2003,7 +1949,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2%E6%99%82%E5%A0%B1%E5%9C%A8%E7%B7%9A</t>
   </si>
   <si>
-    <t>亞洲時報在線</t>
+    <t>亚洲时报在线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E9%80%8F%E7%A4%BE</t>
@@ -2039,19 +1985,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%B0%8E%E9%81%8A</t>
   </si>
   <si>
-    <t>維基導遊</t>
+    <t>维基导游</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%97%E7%B6%A0%E8%89%B2%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>伊朗綠色革命</t>
+    <t>伊朗绿色革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E4%BA%9E%E6%B4%B2</t>
   </si>
   <si>
-    <t>Template talk-亞洲</t>
+    <t>Template talk-亚洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E4%BA%9A</t>
@@ -2093,13 +2039,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>臺灣地區</t>
+    <t>台湾地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%8D%97%E4%BA%9A</t>
@@ -2249,7 +2195,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B8%83%E5%93%88%E8%8C%B2</t>
   </si>
   <si>
-    <t>阿布哈茲</t>
+    <t>阿布哈兹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%A5%A5%E5%A1%9E%E6%A2%AF</t>
@@ -2309,13 +2255,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
   </si>
   <si>
-    <t>賽普勒斯</t>
+    <t>赛普勒斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
   </si>
   <si>
-    <t>北賽普勒斯</t>
+    <t>北赛普勒斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E4%BA%9A</t>
@@ -2339,13 +2285,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%85%8B%E7%BE%85%E6%8F%90%E5%88%A9%E8%88%87%E5%BE%B7%E5%87%B1%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>亞克羅提利與德凱利亞</t>
+    <t>亚克罗提利与德凯利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E5%8D%B0%E5%BA%A6%E6%B4%8B%E9%A0%98%E5%9C%B0</t>
   </si>
   <si>
-    <t>英屬印度洋領地</t>
+    <t>英属印度洋领地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E8%AF%9E%E5%B2%9B</t>
@@ -2357,7 +2303,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%A7%91%E6%96%AF%EF%BC%88%E5%9F%BA%E6%9E%97%EF%BC%89%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>科科斯（基林）群島</t>
+    <t>科科斯（基林）群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF</t>
@@ -2369,7 +2315,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80</t>
   </si>
   <si>
-    <t>澳門</t>
+    <t>澳门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%89%E9%99%90%E6%89%BF%E8%AE%A4%E5%9B%BD%E5%AE%B6%E5%88%97%E8%A1%A8</t>
@@ -2399,7 +2345,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
+    <t>欧洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B4%8B%E6%B4%B2</t>
@@ -2417,13 +2363,10 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B</t>
   </si>
   <si>
-    <t>聯合國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%9C%83%E5%93%A1%E5%9C%8B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>聯合國會員國列表</t>
+    <t>联合国会员国列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%8F%8A</t>
@@ -2441,55 +2384,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E6%97%A6</t>
   </si>
   <si>
-    <t>約旦</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>馬來西亞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%B3%8A%E7%88%BE</t>
   </si>
   <si>
-    <t>尼泊爾</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93</t>
   </si>
   <si>
-    <t>菲律賓</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E9%87%8C%E8%98%AD%E5%8D%A1</t>
   </si>
   <si>
-    <t>斯里蘭卡</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%98%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>敘利亞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9C%8B</t>
   </si>
   <si>
-    <t>泰國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%81%AF%E9%85%8B</t>
   </si>
   <si>
-    <t>阿聯酋</t>
+    <t>阿联酋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E6%88%88%E5%B0%94%E8%AF%BA-%E5%8D%A1%E6%8B%89%E5%B7%B4%E8%B5%AB%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -2501,7 +2420,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3</t>
   </si>
   <si>
-    <t>臺灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%85%8B%E7%BD%97%E8%92%82%E9%87%8C%E5%92%8C%E6%B3%BD%E5%87%AF%E5%88%A9%E4%BA%9A</t>
@@ -2513,31 +2432,31 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E8%87%BA%E5%8C%97</t>
   </si>
   <si>
-    <t>中華臺北</t>
+    <t>中华台北</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%A4%A7%E6%9C%832758%E8%99%9F%E6%B1%BA%E8%AD%B0</t>
   </si>
   <si>
-    <t>聯合國大會2758號決議</t>
+    <t>联合国大会2758号决议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E5%95%8F%E9%A1%8C</t>
   </si>
   <si>
-    <t>台灣問題</t>
+    <t>台湾问题</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E6%B5%B7%E7%8F%BE%E7%8B%80</t>
   </si>
   <si>
-    <t>台海現狀</t>
+    <t>台海现状</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%A4%A7%E6%9C%83%E8%A7%80%E5%AF%9F%E5%93%A1%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>聯合國大會觀察員列表</t>
+    <t>联合国大会观察员列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%8B%92%E6%96%AF%E5%9D%A6%E9%97%AE%E9%A2%98</t>
@@ -2567,7 +2486,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%88%E5%8F%8A%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>奈及利亞</t>
+    <t>奈及利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%93%A5%E6%8B%89</t>
@@ -2615,13 +2534,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%85%A7%E7%91%9E%E6%8B%89</t>
   </si>
   <si>
-    <t>委內瑞拉</t>
+    <t>委内瑞拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>玻利維亞</t>
+    <t>玻利维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E4%B8%B9</t>
@@ -2657,7 +2576,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%90%89%E7%B4%8D%E6%B3%95%E7%B4%A2</t>
   </si>
   <si>
-    <t>布吉納法索</t>
+    <t>布吉纳法索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%80%E9%BA%A6%E9%9A%86</t>
@@ -2765,13 +2684,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E5%88%A9%E5%8D%97</t>
   </si>
   <si>
-    <t>蘇利南</t>
+    <t>苏利南</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>突尼西亞</t>
+    <t>突尼西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%93%A5</t>
@@ -2795,13 +2714,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%9D%9E%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>中非共和國</t>
+    <t>中非共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%B4%9B%E6%B0%91%E6%97%8F%E8%A7%A3%E6%94%BE%E9%99%A3%E7%B7%9A</t>
   </si>
   <si>
-    <t>莫洛民族解放陣線</t>
+    <t>莫洛民族解放阵线</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Parliamentary_Union_of_the_OIC_Member_States</t>
@@ -2903,7 +2822,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%88%A9%E8%8C%B2</t>
   </si>
   <si>
-    <t>伯利茲</t>
+    <t>伯利兹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E8%8C%A8%E7%93%A6%E7%BA%B3</t>
@@ -2915,9 +2834,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%B6%E8%90%8A</t>
   </si>
   <si>
-    <t>汶萊</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%9F%BA%E7%BA%B3%E6%B3%95%E7%B4%A2</t>
   </si>
   <si>
@@ -2939,9 +2855,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%9D%9E%E5%85%B1%E5%92%8C%E5%9B%BD</t>
   </si>
   <si>
-    <t>中非共和国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E5%88%A9</t>
   </si>
   <si>
@@ -3095,7 +3008,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%85%8B%E9%87%8C%E6%96%AF%E5%A4%9A%E7%A6%8F%E8%88%87%E5%B0%BC%E7%B6%AD%E6%96%AF</t>
   </si>
   <si>
-    <t>聖克里斯多福與尼維斯</t>
+    <t>圣克里斯多福与尼维斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%8D%A2%E8%A5%BF%E4%BA%9A</t>
@@ -3191,7 +3104,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%85%A7%E5%93%A5%E7%BE%85</t>
   </si>
   <si>
-    <t>蒙特內哥羅</t>
+    <t>蒙特内哥罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E5%9C%AD</t>
@@ -3227,9 +3140,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>白俄羅斯</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E7%9B%9F</t>
   </si>
   <si>
@@ -3239,7 +3149,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E7%AB%8B%E5%9C%8B%E5%AE%B6%E8%81%AF%E5%90%88%E9%AB%94</t>
   </si>
   <si>
-    <t>獨立國家聯合體</t>
+    <t>独立国家联合体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E6%B5%B7%E4%BA%94%E5%9B%BD%E4%BC%9A%E6%99%A4%E6%9C%BA%E5%88%B6</t>
@@ -3263,7 +3173,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -3281,7 +3191,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -3293,7 +3203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -3305,13 +3215,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E6%AD%B7%E5%8F%B2%E8%BE%AD%E5%85%B8</t>
   </si>
   <si>
-    <t>瑞士歷史辭典</t>
+    <t>瑞士历史辞典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -5045,7 +4955,7 @@
         <v>95</v>
       </c>
       <c r="F48" t="s">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="G48" t="n">
         <v>5</v>
@@ -5071,10 +4981,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>39</v>
@@ -5100,10 +5010,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>5</v>
@@ -5129,10 +5039,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>5</v>
@@ -5158,10 +5068,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>2</v>
@@ -5187,10 +5097,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>6</v>
@@ -5216,10 +5126,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>2</v>
@@ -5245,10 +5155,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>9</v>
@@ -5274,10 +5184,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>12</v>
@@ -5303,10 +5213,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
       </c>
       <c r="G57" t="n">
         <v>6</v>
@@ -5332,10 +5242,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
       </c>
       <c r="G58" t="n">
         <v>11</v>
@@ -5361,10 +5271,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
         <v>117</v>
-      </c>
-      <c r="F59" t="s">
-        <v>118</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -5390,10 +5300,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
         <v>119</v>
-      </c>
-      <c r="F60" t="s">
-        <v>120</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -5419,10 +5329,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
         <v>121</v>
-      </c>
-      <c r="F61" t="s">
-        <v>122</v>
       </c>
       <c r="G61" t="n">
         <v>9</v>
@@ -5448,10 +5358,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
         <v>123</v>
-      </c>
-      <c r="F62" t="s">
-        <v>124</v>
       </c>
       <c r="G62" t="n">
         <v>20</v>
@@ -5477,10 +5387,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" t="s">
         <v>125</v>
-      </c>
-      <c r="F63" t="s">
-        <v>126</v>
       </c>
       <c r="G63" t="n">
         <v>4</v>
@@ -5506,10 +5416,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" t="s">
         <v>127</v>
-      </c>
-      <c r="F64" t="s">
-        <v>128</v>
       </c>
       <c r="G64" t="n">
         <v>5</v>
@@ -5535,10 +5445,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" t="s">
         <v>129</v>
-      </c>
-      <c r="F65" t="s">
-        <v>130</v>
       </c>
       <c r="G65" t="n">
         <v>3</v>
@@ -5564,10 +5474,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" t="s">
         <v>131</v>
-      </c>
-      <c r="F66" t="s">
-        <v>132</v>
       </c>
       <c r="G66" t="n">
         <v>2</v>
@@ -5593,10 +5503,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>132</v>
+      </c>
+      <c r="F67" t="s">
         <v>133</v>
-      </c>
-      <c r="F67" t="s">
-        <v>134</v>
       </c>
       <c r="G67" t="n">
         <v>2</v>
@@ -5622,10 +5532,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>134</v>
+      </c>
+      <c r="F68" t="s">
         <v>135</v>
-      </c>
-      <c r="F68" t="s">
-        <v>136</v>
       </c>
       <c r="G68" t="n">
         <v>10</v>
@@ -5680,10 +5590,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>136</v>
+      </c>
+      <c r="F70" t="s">
         <v>137</v>
-      </c>
-      <c r="F70" t="s">
-        <v>138</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -5738,10 +5648,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>138</v>
+      </c>
+      <c r="F72" t="s">
         <v>139</v>
-      </c>
-      <c r="F72" t="s">
-        <v>140</v>
       </c>
       <c r="G72" t="n">
         <v>2</v>
@@ -5767,10 +5677,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>140</v>
+      </c>
+      <c r="F73" t="s">
         <v>141</v>
-      </c>
-      <c r="F73" t="s">
-        <v>142</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -5796,10 +5706,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>142</v>
+      </c>
+      <c r="F74" t="s">
         <v>143</v>
-      </c>
-      <c r="F74" t="s">
-        <v>144</v>
       </c>
       <c r="G74" t="n">
         <v>2</v>
@@ -5825,10 +5735,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>144</v>
+      </c>
+      <c r="F75" t="s">
         <v>145</v>
-      </c>
-      <c r="F75" t="s">
-        <v>146</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -5854,10 +5764,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>146</v>
+      </c>
+      <c r="F76" t="s">
         <v>147</v>
-      </c>
-      <c r="F76" t="s">
-        <v>148</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -5883,10 +5793,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>148</v>
+      </c>
+      <c r="F77" t="s">
         <v>149</v>
-      </c>
-      <c r="F77" t="s">
-        <v>150</v>
       </c>
       <c r="G77" t="n">
         <v>3</v>
@@ -5912,10 +5822,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>150</v>
+      </c>
+      <c r="F78" t="s">
         <v>151</v>
-      </c>
-      <c r="F78" t="s">
-        <v>152</v>
       </c>
       <c r="G78" t="n">
         <v>22</v>
@@ -5941,10 +5851,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>152</v>
+      </c>
+      <c r="F79" t="s">
         <v>153</v>
-      </c>
-      <c r="F79" t="s">
-        <v>154</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -5970,10 +5880,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>154</v>
+      </c>
+      <c r="F80" t="s">
         <v>155</v>
-      </c>
-      <c r="F80" t="s">
-        <v>156</v>
       </c>
       <c r="G80" t="n">
         <v>6</v>
@@ -5999,10 +5909,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>156</v>
+      </c>
+      <c r="F81" t="s">
         <v>157</v>
-      </c>
-      <c r="F81" t="s">
-        <v>158</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -6028,10 +5938,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>158</v>
+      </c>
+      <c r="F82" t="s">
         <v>159</v>
-      </c>
-      <c r="F82" t="s">
-        <v>160</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -6057,10 +5967,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>160</v>
+      </c>
+      <c r="F83" t="s">
         <v>161</v>
-      </c>
-      <c r="F83" t="s">
-        <v>162</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -6086,10 +5996,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>162</v>
+      </c>
+      <c r="F84" t="s">
         <v>163</v>
-      </c>
-      <c r="F84" t="s">
-        <v>164</v>
       </c>
       <c r="G84" t="n">
         <v>7</v>
@@ -6115,10 +6025,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>164</v>
+      </c>
+      <c r="F85" t="s">
         <v>165</v>
-      </c>
-      <c r="F85" t="s">
-        <v>166</v>
       </c>
       <c r="G85" t="n">
         <v>63</v>
@@ -6144,10 +6054,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>166</v>
+      </c>
+      <c r="F86" t="s">
         <v>167</v>
-      </c>
-      <c r="F86" t="s">
-        <v>168</v>
       </c>
       <c r="G86" t="n">
         <v>2</v>
@@ -6173,10 +6083,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>168</v>
+      </c>
+      <c r="F87" t="s">
         <v>169</v>
-      </c>
-      <c r="F87" t="s">
-        <v>170</v>
       </c>
       <c r="G87" t="n">
         <v>3</v>
@@ -6202,10 +6112,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>170</v>
+      </c>
+      <c r="F88" t="s">
         <v>171</v>
-      </c>
-      <c r="F88" t="s">
-        <v>172</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -6231,10 +6141,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>172</v>
+      </c>
+      <c r="F89" t="s">
         <v>173</v>
-      </c>
-      <c r="F89" t="s">
-        <v>174</v>
       </c>
       <c r="G89" t="n">
         <v>2</v>
@@ -6260,10 +6170,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>174</v>
+      </c>
+      <c r="F90" t="s">
         <v>175</v>
-      </c>
-      <c r="F90" t="s">
-        <v>176</v>
       </c>
       <c r="G90" t="n">
         <v>2</v>
@@ -6289,10 +6199,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>176</v>
+      </c>
+      <c r="F91" t="s">
         <v>177</v>
-      </c>
-      <c r="F91" t="s">
-        <v>178</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -6318,10 +6228,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>178</v>
+      </c>
+      <c r="F92" t="s">
         <v>179</v>
-      </c>
-      <c r="F92" t="s">
-        <v>180</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -6347,10 +6257,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>180</v>
+      </c>
+      <c r="F93" t="s">
         <v>181</v>
-      </c>
-      <c r="F93" t="s">
-        <v>182</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -6405,10 +6315,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>182</v>
+      </c>
+      <c r="F95" t="s">
         <v>183</v>
-      </c>
-      <c r="F95" t="s">
-        <v>184</v>
       </c>
       <c r="G95" t="n">
         <v>4</v>
@@ -6434,10 +6344,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>184</v>
+      </c>
+      <c r="F96" t="s">
         <v>185</v>
-      </c>
-      <c r="F96" t="s">
-        <v>186</v>
       </c>
       <c r="G96" t="n">
         <v>9</v>
@@ -6463,10 +6373,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>186</v>
+      </c>
+      <c r="F97" t="s">
         <v>187</v>
-      </c>
-      <c r="F97" t="s">
-        <v>188</v>
       </c>
       <c r="G97" t="n">
         <v>16</v>
@@ -6492,10 +6402,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>188</v>
+      </c>
+      <c r="F98" t="s">
         <v>189</v>
-      </c>
-      <c r="F98" t="s">
-        <v>190</v>
       </c>
       <c r="G98" t="n">
         <v>4</v>
@@ -6521,10 +6431,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>190</v>
+      </c>
+      <c r="F99" t="s">
         <v>191</v>
-      </c>
-      <c r="F99" t="s">
-        <v>192</v>
       </c>
       <c r="G99" t="n">
         <v>5</v>
@@ -6550,10 +6460,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>192</v>
+      </c>
+      <c r="F100" t="s">
         <v>193</v>
-      </c>
-      <c r="F100" t="s">
-        <v>194</v>
       </c>
       <c r="G100" t="n">
         <v>3</v>
@@ -6579,10 +6489,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>194</v>
+      </c>
+      <c r="F101" t="s">
         <v>195</v>
-      </c>
-      <c r="F101" t="s">
-        <v>196</v>
       </c>
       <c r="G101" t="n">
         <v>2</v>
@@ -6608,10 +6518,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>196</v>
+      </c>
+      <c r="F102" t="s">
         <v>197</v>
-      </c>
-      <c r="F102" t="s">
-        <v>198</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -6637,10 +6547,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>198</v>
+      </c>
+      <c r="F103" t="s">
         <v>199</v>
-      </c>
-      <c r="F103" t="s">
-        <v>200</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -6666,10 +6576,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F104" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -6695,10 +6605,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F105" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G105" t="n">
         <v>5</v>
@@ -6724,10 +6634,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F106" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -6753,10 +6663,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F107" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -6782,10 +6692,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F108" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -6811,10 +6721,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F109" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G109" t="n">
         <v>4</v>
@@ -6840,10 +6750,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F110" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G110" t="n">
         <v>2</v>
@@ -6869,10 +6779,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F111" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -6898,10 +6808,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F112" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G112" t="n">
         <v>2</v>
@@ -6927,10 +6837,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F113" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -6956,10 +6866,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F114" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -6985,10 +6895,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F115" t="s">
-        <v>224</v>
+        <v>151</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -7014,10 +6924,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F116" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -7043,10 +6953,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F117" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -7072,10 +6982,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F118" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -7101,10 +7011,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>150</v>
+      </c>
+      <c r="F119" t="s">
         <v>151</v>
-      </c>
-      <c r="F119" t="s">
-        <v>152</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -7130,10 +7040,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F120" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -7159,10 +7069,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F121" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -7188,10 +7098,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F122" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -7217,10 +7127,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F123" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -7246,10 +7156,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F124" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -7275,10 +7185,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F125" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -7304,10 +7214,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F126" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -7333,10 +7243,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F127" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -7362,10 +7272,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F128" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -7391,10 +7301,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F129" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -7420,10 +7330,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F130" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G130" t="n">
         <v>2</v>
@@ -7449,10 +7359,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F131" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -7478,10 +7388,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F132" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G132" t="n">
         <v>29</v>
@@ -7507,10 +7417,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F133" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -7536,10 +7446,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F134" t="s">
-        <v>260</v>
+        <v>101</v>
       </c>
       <c r="G134" t="n">
         <v>6</v>
@@ -7565,10 +7475,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F135" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="G135" t="n">
         <v>3</v>
@@ -7594,10 +7504,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F136" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="G136" t="n">
         <v>2</v>
@@ -7623,10 +7533,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F137" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="G137" t="n">
         <v>2</v>
@@ -7652,10 +7562,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F138" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="G138" t="n">
         <v>4</v>
@@ -7681,10 +7591,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F139" t="s">
-        <v>270</v>
+        <v>10</v>
       </c>
       <c r="G139" t="n">
         <v>7</v>
@@ -7710,10 +7620,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>158</v>
+      </c>
+      <c r="F140" t="s">
         <v>159</v>
-      </c>
-      <c r="F140" t="s">
-        <v>160</v>
       </c>
       <c r="G140" t="n">
         <v>5</v>
@@ -7739,10 +7649,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="F141" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -7768,10 +7678,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="F142" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -7797,10 +7707,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="F143" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -7826,10 +7736,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="F144" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -7855,10 +7765,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="F145" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="G145" t="n">
         <v>11</v>
@@ -7884,10 +7794,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F146" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -7913,10 +7823,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="F147" t="s">
-        <v>284</v>
+        <v>135</v>
       </c>
       <c r="G147" t="n">
         <v>3</v>
@@ -7942,10 +7852,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="F148" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -7971,10 +7881,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="F149" t="s">
-        <v>288</v>
+        <v>169</v>
       </c>
       <c r="G149" t="n">
         <v>2</v>
@@ -8000,10 +7910,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="F150" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="G150" t="n">
         <v>3</v>
@@ -8029,10 +7939,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="F151" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="G151" t="n">
         <v>4</v>
@@ -8058,10 +7968,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F152" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="G152" t="n">
         <v>3</v>
@@ -8087,10 +7997,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="F153" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -8116,10 +8026,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="F154" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -8145,10 +8055,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="F155" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -8174,10 +8084,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="F156" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -8203,10 +8113,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F157" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -8232,10 +8142,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="F158" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -8261,10 +8171,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>170</v>
+      </c>
+      <c r="F159" t="s">
         <v>171</v>
-      </c>
-      <c r="F159" t="s">
-        <v>172</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -8290,10 +8200,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="F160" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -8319,10 +8229,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="F161" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -8348,10 +8258,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="F162" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -8377,10 +8287,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="F163" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -8406,10 +8316,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="F164" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="G164" t="n">
         <v>2</v>
@@ -8435,10 +8345,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="F165" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -8464,10 +8374,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="F166" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -8493,10 +8403,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="F167" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -8522,10 +8432,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="F168" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="G168" t="n">
         <v>6</v>
@@ -8551,10 +8461,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="F169" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -8580,10 +8490,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="F170" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -8609,10 +8519,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="F171" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -8638,10 +8548,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="F172" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -8667,10 +8577,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="F173" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -8696,10 +8606,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="F174" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -8725,10 +8635,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="F175" t="s">
-        <v>338</v>
+        <v>302</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -8754,10 +8664,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="F176" t="s">
-        <v>340</v>
+        <v>282</v>
       </c>
       <c r="G176" t="n">
         <v>2</v>
@@ -8812,10 +8722,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="F178" t="s">
-        <v>342</v>
+        <v>99</v>
       </c>
       <c r="G178" t="n">
         <v>5</v>
@@ -8841,10 +8751,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F179" t="s">
-        <v>344</v>
+        <v>202</v>
       </c>
       <c r="G179" t="n">
         <v>12</v>
@@ -8870,10 +8780,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="F180" t="s">
-        <v>346</v>
+        <v>117</v>
       </c>
       <c r="G180" t="n">
         <v>7</v>
@@ -8899,10 +8809,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="F181" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="G181" t="n">
         <v>2</v>
@@ -8928,10 +8838,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="F182" t="s">
-        <v>350</v>
+        <v>103</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -8957,10 +8867,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="F183" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -8986,10 +8896,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="F184" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="G184" t="n">
         <v>2</v>
@@ -9015,10 +8925,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="F185" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="G185" t="n">
         <v>6</v>
@@ -9044,10 +8954,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="F186" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -9073,10 +8983,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="F187" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="G187" t="n">
         <v>3</v>
@@ -9102,10 +9012,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="F188" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -9131,10 +9041,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="F189" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -9160,10 +9070,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="F190" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -9189,10 +9099,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="F191" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -9247,10 +9157,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="F193" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="G193" t="n">
         <v>13</v>
@@ -9276,10 +9186,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="F194" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -9305,10 +9215,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="F195" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="G195" t="n">
         <v>5</v>
@@ -9334,10 +9244,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
+        <v>162</v>
+      </c>
+      <c r="F196" t="s">
         <v>163</v>
-      </c>
-      <c r="F196" t="s">
-        <v>164</v>
       </c>
       <c r="G196" t="n">
         <v>3</v>
@@ -9363,10 +9273,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="F197" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -9392,10 +9302,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="F198" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="G198" t="n">
         <v>4</v>
@@ -9421,10 +9331,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="F199" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -9450,10 +9360,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="F200" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -9479,10 +9389,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="F201" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="G201" t="n">
         <v>6</v>
@@ -9508,10 +9418,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="F202" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="G202" t="n">
         <v>5</v>
@@ -9537,10 +9447,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="F203" t="s">
-        <v>388</v>
+        <v>38</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -9566,10 +9476,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="F204" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -9595,10 +9505,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="F205" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -9624,10 +9534,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="F206" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="G206" t="n">
         <v>2</v>
@@ -9653,10 +9563,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
+        <v>172</v>
+      </c>
+      <c r="F207" t="s">
         <v>173</v>
-      </c>
-      <c r="F207" t="s">
-        <v>174</v>
       </c>
       <c r="G207" t="n">
         <v>6</v>
@@ -9682,10 +9592,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="F208" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -9711,10 +9621,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="F209" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -9740,10 +9650,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="F210" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="G210" t="n">
         <v>2</v>
@@ -9769,10 +9679,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="F211" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="G211" t="n">
         <v>5</v>
@@ -9798,10 +9708,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="F212" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -9827,10 +9737,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="F213" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -9856,10 +9766,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="F214" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="G214" t="n">
         <v>2</v>
@@ -9885,10 +9795,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="F215" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="G215" t="n">
         <v>4</v>
@@ -9914,10 +9824,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="F216" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="G216" t="n">
         <v>2</v>
@@ -9943,13 +9853,13 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="F217" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="G217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H217" t="s">
         <v>4</v>
@@ -9972,10 +9882,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="F218" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="G218" t="n">
         <v>5</v>
@@ -10001,10 +9911,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="F219" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="G219" t="n">
         <v>3</v>
@@ -10030,10 +9940,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="F220" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="G220" t="n">
         <v>3</v>
@@ -10059,10 +9969,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="F221" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="G221" t="n">
         <v>2</v>
@@ -10088,10 +9998,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="F222" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="G222" t="n">
         <v>4</v>
@@ -10117,10 +10027,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="F223" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -10146,10 +10056,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="F224" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="G224" t="n">
         <v>2</v>
@@ -10175,10 +10085,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
       <c r="F225" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="G225" t="n">
         <v>8</v>
@@ -10204,10 +10114,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="F226" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="G226" t="n">
         <v>2</v>
@@ -10233,10 +10143,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="F227" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
       <c r="G227" t="n">
         <v>3</v>
@@ -10262,13 +10172,13 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="F228" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="G228" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H228" t="s">
         <v>4</v>
@@ -10291,10 +10201,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="F229" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="G229" t="n">
         <v>3</v>
@@ -10320,10 +10230,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="F230" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="G230" t="n">
         <v>2</v>
@@ -10349,10 +10259,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="F231" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="G231" t="n">
         <v>5</v>
@@ -10378,10 +10288,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="F232" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="G232" t="n">
         <v>2</v>
@@ -10407,10 +10317,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="F233" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="G233" t="n">
         <v>2</v>
@@ -10436,10 +10346,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="F234" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="G234" t="n">
         <v>4</v>
@@ -10465,10 +10375,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="F235" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -10494,10 +10404,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="F236" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="G236" t="n">
         <v>2</v>
@@ -10523,13 +10433,13 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="F237" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="G237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H237" t="s">
         <v>4</v>
@@ -10552,10 +10462,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="F238" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="G238" t="n">
         <v>4</v>
@@ -10581,10 +10491,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="F239" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
       <c r="G239" t="n">
         <v>4</v>
@@ -10610,10 +10520,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="F240" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
       <c r="G240" t="n">
         <v>2</v>
@@ -10639,10 +10549,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="F241" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="G241" t="n">
         <v>2</v>
@@ -10668,10 +10578,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="F242" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="G242" t="n">
         <v>2</v>
@@ -10697,10 +10607,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="F243" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="G243" t="n">
         <v>2</v>
@@ -10726,10 +10636,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="F244" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="G244" t="n">
         <v>5</v>
@@ -10755,13 +10665,13 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
+        <v>120</v>
+      </c>
+      <c r="F245" t="s">
         <v>121</v>
       </c>
-      <c r="F245" t="s">
-        <v>122</v>
-      </c>
       <c r="G245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H245" t="s">
         <v>4</v>
@@ -10784,10 +10694,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="F246" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
       <c r="G246" t="n">
         <v>6</v>
@@ -10813,10 +10723,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
       <c r="F247" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="G247" t="n">
         <v>2</v>
@@ -10842,10 +10752,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="F248" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="G248" t="n">
         <v>2</v>
@@ -10871,10 +10781,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="F249" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -10900,10 +10810,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="F250" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="G250" t="n">
         <v>2</v>
@@ -10929,10 +10839,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="F251" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -10958,10 +10868,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="F252" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="G252" t="n">
         <v>2</v>
@@ -10987,10 +10897,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="F253" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -11016,10 +10926,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="F254" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -11045,10 +10955,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="F255" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -11074,10 +10984,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="F256" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="G256" t="n">
         <v>2</v>
@@ -11103,10 +11013,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="F257" t="s">
-        <v>476</v>
+        <v>411</v>
       </c>
       <c r="G257" t="n">
         <v>3</v>
@@ -11132,10 +11042,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="F258" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="G258" t="n">
         <v>2</v>
@@ -11161,10 +11071,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="F259" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="G259" t="n">
         <v>2</v>
@@ -11190,10 +11100,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="F260" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
       <c r="G260" t="n">
         <v>2</v>
@@ -11219,10 +11129,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
       <c r="F261" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="G261" t="n">
         <v>2</v>
@@ -11248,10 +11158,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
       <c r="F262" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -11277,10 +11187,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="F263" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="G263" t="n">
         <v>2</v>
@@ -11306,10 +11216,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="F264" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -11335,10 +11245,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="F265" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="G265" t="n">
         <v>2</v>
@@ -11364,10 +11274,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="F266" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="G266" t="n">
         <v>2</v>
@@ -11393,10 +11303,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="F267" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -11422,10 +11332,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="F268" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="G268" t="n">
         <v>2</v>
@@ -11451,10 +11361,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="F269" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -11480,10 +11390,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="F270" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -11509,10 +11419,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="F271" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -11538,10 +11448,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="F272" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -11567,10 +11477,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="F273" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -11596,10 +11506,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="F274" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -11625,10 +11535,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="F275" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
       <c r="G275" t="n">
         <v>4</v>
@@ -11654,10 +11564,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="F276" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
       <c r="G276" t="n">
         <v>2</v>
@@ -11683,10 +11593,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="F277" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -11712,10 +11622,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="F278" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="G278" t="n">
         <v>2</v>
@@ -11741,10 +11651,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="F279" t="s">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="G279" t="n">
         <v>3</v>
@@ -11770,10 +11680,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="F280" t="s">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="G280" t="n">
         <v>2</v>
@@ -11799,10 +11709,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="F281" t="s">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -11828,10 +11738,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>491</v>
+        <v>475</v>
       </c>
       <c r="F282" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -11857,10 +11767,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="F283" t="s">
-        <v>494</v>
+        <v>478</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -11886,10 +11796,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>495</v>
+        <v>479</v>
       </c>
       <c r="F284" t="s">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="G284" t="n">
         <v>3</v>
@@ -11915,10 +11825,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="F285" t="s">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="G285" t="n">
         <v>9</v>
@@ -11944,10 +11854,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>499</v>
+        <v>483</v>
       </c>
       <c r="F286" t="s">
-        <v>500</v>
+        <v>484</v>
       </c>
       <c r="G286" t="n">
         <v>14</v>
@@ -11973,10 +11883,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
+        <v>164</v>
+      </c>
+      <c r="F287" t="s">
         <v>165</v>
-      </c>
-      <c r="F287" t="s">
-        <v>166</v>
       </c>
       <c r="G287" t="n">
         <v>12</v>
@@ -12002,10 +11912,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="F288" t="s">
-        <v>502</v>
+        <v>486</v>
       </c>
       <c r="G288" t="n">
         <v>2</v>
@@ -12031,10 +11941,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>503</v>
+        <v>487</v>
       </c>
       <c r="F289" t="s">
-        <v>504</v>
+        <v>488</v>
       </c>
       <c r="G289" t="n">
         <v>6</v>
@@ -12060,10 +11970,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>505</v>
+        <v>489</v>
       </c>
       <c r="F290" t="s">
-        <v>506</v>
+        <v>490</v>
       </c>
       <c r="G290" t="n">
         <v>13</v>
@@ -12089,10 +11999,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>507</v>
+        <v>491</v>
       </c>
       <c r="F291" t="s">
-        <v>508</v>
+        <v>492</v>
       </c>
       <c r="G291" t="n">
         <v>5</v>
@@ -12118,10 +12028,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>509</v>
+        <v>493</v>
       </c>
       <c r="F292" t="s">
-        <v>510</v>
+        <v>183</v>
       </c>
       <c r="G292" t="n">
         <v>3</v>
@@ -12147,10 +12057,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>511</v>
+        <v>494</v>
       </c>
       <c r="F293" t="s">
-        <v>512</v>
+        <v>495</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -12176,10 +12086,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>513</v>
+        <v>496</v>
       </c>
       <c r="F294" t="s">
-        <v>514</v>
+        <v>497</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -12205,10 +12115,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>515</v>
+        <v>498</v>
       </c>
       <c r="F295" t="s">
-        <v>516</v>
+        <v>499</v>
       </c>
       <c r="G295" t="n">
         <v>2</v>
@@ -12234,10 +12144,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>517</v>
+        <v>500</v>
       </c>
       <c r="F296" t="s">
-        <v>518</v>
+        <v>501</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -12263,10 +12173,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>519</v>
+        <v>502</v>
       </c>
       <c r="F297" t="s">
-        <v>520</v>
+        <v>503</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -12292,10 +12202,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>521</v>
+        <v>504</v>
       </c>
       <c r="F298" t="s">
-        <v>522</v>
+        <v>505</v>
       </c>
       <c r="G298" t="n">
         <v>2</v>
@@ -12321,10 +12231,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>523</v>
+        <v>506</v>
       </c>
       <c r="F299" t="s">
-        <v>524</v>
+        <v>507</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -12350,10 +12260,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>525</v>
+        <v>508</v>
       </c>
       <c r="F300" t="s">
-        <v>526</v>
+        <v>509</v>
       </c>
       <c r="G300" t="n">
         <v>3</v>
@@ -12379,10 +12289,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>527</v>
+        <v>510</v>
       </c>
       <c r="F301" t="s">
-        <v>528</v>
+        <v>511</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -12408,10 +12318,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>529</v>
+        <v>512</v>
       </c>
       <c r="F302" t="s">
-        <v>530</v>
+        <v>513</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -12437,10 +12347,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>531</v>
+        <v>514</v>
       </c>
       <c r="F303" t="s">
-        <v>532</v>
+        <v>515</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -12466,10 +12376,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>533</v>
+        <v>516</v>
       </c>
       <c r="F304" t="s">
-        <v>534</v>
+        <v>517</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -12495,10 +12405,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>535</v>
+        <v>518</v>
       </c>
       <c r="F305" t="s">
-        <v>536</v>
+        <v>519</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -12524,10 +12434,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>537</v>
+        <v>520</v>
       </c>
       <c r="F306" t="s">
-        <v>538</v>
+        <v>521</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -12553,10 +12463,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>539</v>
+        <v>522</v>
       </c>
       <c r="F307" t="s">
-        <v>540</v>
+        <v>523</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -12582,10 +12492,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>541</v>
+        <v>524</v>
       </c>
       <c r="F308" t="s">
-        <v>542</v>
+        <v>20</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -12611,10 +12521,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>543</v>
+        <v>525</v>
       </c>
       <c r="F309" t="s">
-        <v>544</v>
+        <v>526</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -12640,10 +12550,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>545</v>
+        <v>527</v>
       </c>
       <c r="F310" t="s">
-        <v>546</v>
+        <v>528</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -12669,10 +12579,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>547</v>
+        <v>529</v>
       </c>
       <c r="F311" t="s">
-        <v>548</v>
+        <v>530</v>
       </c>
       <c r="G311" t="n">
         <v>2</v>
@@ -12698,10 +12608,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>549</v>
+        <v>531</v>
       </c>
       <c r="F312" t="s">
-        <v>550</v>
+        <v>532</v>
       </c>
       <c r="G312" t="n">
         <v>7</v>
@@ -12727,10 +12637,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="F313" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="G313" t="n">
         <v>2</v>
@@ -12756,10 +12666,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>551</v>
+        <v>533</v>
       </c>
       <c r="F314" t="s">
-        <v>552</v>
+        <v>534</v>
       </c>
       <c r="G314" t="n">
         <v>2</v>
@@ -12785,10 +12695,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>553</v>
+        <v>535</v>
       </c>
       <c r="F315" t="s">
-        <v>554</v>
+        <v>536</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -12814,10 +12724,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="F316" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -12843,10 +12753,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>555</v>
+        <v>537</v>
       </c>
       <c r="F317" t="s">
-        <v>556</v>
+        <v>538</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -12872,10 +12782,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>557</v>
+        <v>539</v>
       </c>
       <c r="F318" t="s">
-        <v>558</v>
+        <v>540</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -12901,10 +12811,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>559</v>
+        <v>541</v>
       </c>
       <c r="F319" t="s">
-        <v>560</v>
+        <v>542</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -12930,10 +12840,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="F320" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -12959,10 +12869,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>561</v>
+        <v>543</v>
       </c>
       <c r="F321" t="s">
-        <v>562</v>
+        <v>544</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -12988,10 +12898,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>563</v>
+        <v>545</v>
       </c>
       <c r="F322" t="s">
-        <v>564</v>
+        <v>546</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -13017,10 +12927,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="F323" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -13046,10 +12956,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>565</v>
+        <v>547</v>
       </c>
       <c r="F324" t="s">
-        <v>566</v>
+        <v>548</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -13075,10 +12985,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>567</v>
+        <v>549</v>
       </c>
       <c r="F325" t="s">
-        <v>568</v>
+        <v>550</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -13104,10 +13014,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>569</v>
+        <v>551</v>
       </c>
       <c r="F326" t="s">
-        <v>570</v>
+        <v>552</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -13133,10 +13043,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>571</v>
+        <v>553</v>
       </c>
       <c r="F327" t="s">
-        <v>572</v>
+        <v>554</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -13162,10 +13072,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>573</v>
+        <v>555</v>
       </c>
       <c r="F328" t="s">
-        <v>574</v>
+        <v>556</v>
       </c>
       <c r="G328" t="n">
         <v>2</v>
@@ -13191,10 +13101,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>575</v>
+        <v>557</v>
       </c>
       <c r="F329" t="s">
-        <v>576</v>
+        <v>558</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -13220,10 +13130,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>577</v>
+        <v>559</v>
       </c>
       <c r="F330" t="s">
-        <v>578</v>
+        <v>560</v>
       </c>
       <c r="G330" t="n">
         <v>2</v>
@@ -13249,10 +13159,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>579</v>
+        <v>561</v>
       </c>
       <c r="F331" t="s">
-        <v>580</v>
+        <v>562</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -13278,10 +13188,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>581</v>
+        <v>563</v>
       </c>
       <c r="F332" t="s">
-        <v>582</v>
+        <v>564</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -13307,10 +13217,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>583</v>
+        <v>565</v>
       </c>
       <c r="F333" t="s">
-        <v>584</v>
+        <v>566</v>
       </c>
       <c r="G333" t="n">
         <v>2</v>
@@ -13336,10 +13246,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>585</v>
+        <v>567</v>
       </c>
       <c r="F334" t="s">
-        <v>586</v>
+        <v>568</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -13365,10 +13275,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>587</v>
+        <v>569</v>
       </c>
       <c r="F335" t="s">
-        <v>588</v>
+        <v>570</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -13394,10 +13304,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>589</v>
+        <v>571</v>
       </c>
       <c r="F336" t="s">
-        <v>590</v>
+        <v>572</v>
       </c>
       <c r="G336" t="n">
         <v>2</v>
@@ -13423,10 +13333,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>591</v>
+        <v>573</v>
       </c>
       <c r="F337" t="s">
-        <v>592</v>
+        <v>574</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -13452,10 +13362,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>593</v>
+        <v>575</v>
       </c>
       <c r="F338" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -13481,10 +13391,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>595</v>
+        <v>577</v>
       </c>
       <c r="F339" t="s">
-        <v>596</v>
+        <v>578</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -13510,10 +13420,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>597</v>
+        <v>579</v>
       </c>
       <c r="F340" t="s">
-        <v>598</v>
+        <v>580</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -13539,10 +13449,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>599</v>
+        <v>581</v>
       </c>
       <c r="F341" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -13568,10 +13478,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>601</v>
+        <v>583</v>
       </c>
       <c r="F342" t="s">
-        <v>602</v>
+        <v>584</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -13597,10 +13507,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>603</v>
+        <v>585</v>
       </c>
       <c r="F343" t="s">
-        <v>604</v>
+        <v>586</v>
       </c>
       <c r="G343" t="n">
         <v>2</v>
@@ -13626,10 +13536,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>605</v>
+        <v>587</v>
       </c>
       <c r="F344" t="s">
-        <v>606</v>
+        <v>588</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -13655,10 +13565,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>607</v>
+        <v>589</v>
       </c>
       <c r="F345" t="s">
-        <v>608</v>
+        <v>590</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -13684,10 +13594,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>609</v>
+        <v>591</v>
       </c>
       <c r="F346" t="s">
-        <v>610</v>
+        <v>592</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -13713,10 +13623,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>611</v>
+        <v>593</v>
       </c>
       <c r="F347" t="s">
-        <v>612</v>
+        <v>594</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -13742,10 +13652,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>613</v>
+        <v>595</v>
       </c>
       <c r="F348" t="s">
-        <v>614</v>
+        <v>596</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -13771,10 +13681,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>615</v>
+        <v>597</v>
       </c>
       <c r="F349" t="s">
-        <v>616</v>
+        <v>598</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -13800,10 +13710,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>617</v>
+        <v>599</v>
       </c>
       <c r="F350" t="s">
-        <v>618</v>
+        <v>600</v>
       </c>
       <c r="G350" t="n">
         <v>2</v>
@@ -13829,10 +13739,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>619</v>
+        <v>601</v>
       </c>
       <c r="F351" t="s">
-        <v>620</v>
+        <v>602</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -13858,10 +13768,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>621</v>
+        <v>603</v>
       </c>
       <c r="F352" t="s">
-        <v>622</v>
+        <v>604</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -13887,10 +13797,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>623</v>
+        <v>605</v>
       </c>
       <c r="F353" t="s">
-        <v>624</v>
+        <v>606</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -13916,10 +13826,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>625</v>
+        <v>607</v>
       </c>
       <c r="F354" t="s">
-        <v>626</v>
+        <v>608</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -13974,10 +13884,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="F356" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -14003,10 +13913,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>627</v>
+        <v>609</v>
       </c>
       <c r="F357" t="s">
-        <v>628</v>
+        <v>610</v>
       </c>
       <c r="G357" t="n">
         <v>3</v>
@@ -14032,10 +13942,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>629</v>
+        <v>611</v>
       </c>
       <c r="F358" t="s">
-        <v>630</v>
+        <v>612</v>
       </c>
       <c r="G358" t="n">
         <v>2</v>
@@ -14061,10 +13971,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>631</v>
+        <v>613</v>
       </c>
       <c r="F359" t="s">
-        <v>632</v>
+        <v>614</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -14090,10 +14000,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>633</v>
+        <v>615</v>
       </c>
       <c r="F360" t="s">
-        <v>634</v>
+        <v>616</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -14119,10 +14029,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>635</v>
+        <v>617</v>
       </c>
       <c r="F361" t="s">
-        <v>636</v>
+        <v>618</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -14148,10 +14058,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>637</v>
+        <v>619</v>
       </c>
       <c r="F362" t="s">
-        <v>638</v>
+        <v>620</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -14177,10 +14087,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="F363" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -14206,10 +14116,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>639</v>
+        <v>621</v>
       </c>
       <c r="F364" t="s">
-        <v>640</v>
+        <v>622</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -14235,10 +14145,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>641</v>
+        <v>623</v>
       </c>
       <c r="F365" t="s">
-        <v>642</v>
+        <v>624</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -14264,10 +14174,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>643</v>
+        <v>625</v>
       </c>
       <c r="F366" t="s">
-        <v>644</v>
+        <v>626</v>
       </c>
       <c r="G366" t="n">
         <v>2</v>
@@ -14293,10 +14203,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>645</v>
+        <v>627</v>
       </c>
       <c r="F367" t="s">
-        <v>646</v>
+        <v>628</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -14322,10 +14232,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>647</v>
+        <v>629</v>
       </c>
       <c r="F368" t="s">
-        <v>648</v>
+        <v>630</v>
       </c>
       <c r="G368" t="n">
         <v>34</v>
@@ -14351,10 +14261,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>649</v>
+        <v>631</v>
       </c>
       <c r="F369" t="s">
-        <v>650</v>
+        <v>632</v>
       </c>
       <c r="G369" t="n">
         <v>2</v>
@@ -14380,10 +14290,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>651</v>
+        <v>633</v>
       </c>
       <c r="F370" t="s">
-        <v>652</v>
+        <v>634</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -14409,10 +14319,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>653</v>
+        <v>635</v>
       </c>
       <c r="F371" t="s">
-        <v>654</v>
+        <v>636</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -14438,10 +14348,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>655</v>
+        <v>637</v>
       </c>
       <c r="F372" t="s">
-        <v>656</v>
+        <v>638</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -14467,10 +14377,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>657</v>
+        <v>639</v>
       </c>
       <c r="F373" t="s">
-        <v>658</v>
+        <v>640</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -14496,10 +14406,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>659</v>
+        <v>641</v>
       </c>
       <c r="F374" t="s">
-        <v>660</v>
+        <v>642</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -14525,10 +14435,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>661</v>
+        <v>643</v>
       </c>
       <c r="F375" t="s">
-        <v>662</v>
+        <v>644</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -14554,10 +14464,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>663</v>
+        <v>645</v>
       </c>
       <c r="F376" t="s">
-        <v>664</v>
+        <v>646</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -14583,10 +14493,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>665</v>
+        <v>647</v>
       </c>
       <c r="F377" t="s">
-        <v>666</v>
+        <v>648</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -14612,10 +14522,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>667</v>
+        <v>649</v>
       </c>
       <c r="F378" t="s">
-        <v>668</v>
+        <v>650</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -14641,10 +14551,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>669</v>
+        <v>651</v>
       </c>
       <c r="F379" t="s">
-        <v>670</v>
+        <v>652</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -14670,10 +14580,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>671</v>
+        <v>653</v>
       </c>
       <c r="F380" t="s">
-        <v>672</v>
+        <v>654</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -14699,10 +14609,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>673</v>
+        <v>655</v>
       </c>
       <c r="F381" t="s">
-        <v>674</v>
+        <v>656</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -14728,10 +14638,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
+        <v>168</v>
+      </c>
+      <c r="F382" t="s">
         <v>169</v>
-      </c>
-      <c r="F382" t="s">
-        <v>170</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -14757,10 +14667,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>675</v>
+        <v>657</v>
       </c>
       <c r="F383" t="s">
-        <v>676</v>
+        <v>658</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -14786,10 +14696,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>677</v>
+        <v>659</v>
       </c>
       <c r="F384" t="s">
-        <v>678</v>
+        <v>660</v>
       </c>
       <c r="G384" t="n">
         <v>12</v>
@@ -14815,10 +14725,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>679</v>
+        <v>661</v>
       </c>
       <c r="F385" t="s">
-        <v>680</v>
+        <v>662</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -14844,10 +14754,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>681</v>
+        <v>663</v>
       </c>
       <c r="F386" t="s">
-        <v>682</v>
+        <v>664</v>
       </c>
       <c r="G386" t="n">
         <v>2</v>
@@ -14873,10 +14783,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>683</v>
+        <v>665</v>
       </c>
       <c r="F387" t="s">
-        <v>684</v>
+        <v>666</v>
       </c>
       <c r="G387" t="n">
         <v>3</v>
@@ -14902,10 +14812,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>685</v>
+        <v>667</v>
       </c>
       <c r="F388" t="s">
-        <v>686</v>
+        <v>668</v>
       </c>
       <c r="G388" t="n">
         <v>3</v>
@@ -14931,10 +14841,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>687</v>
+        <v>669</v>
       </c>
       <c r="F389" t="s">
-        <v>688</v>
+        <v>670</v>
       </c>
       <c r="G389" t="n">
         <v>2</v>
@@ -14960,10 +14870,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>689</v>
+        <v>671</v>
       </c>
       <c r="F390" t="s">
-        <v>690</v>
+        <v>672</v>
       </c>
       <c r="G390" t="n">
         <v>5</v>
@@ -14989,10 +14899,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>691</v>
+        <v>673</v>
       </c>
       <c r="F391" t="s">
-        <v>692</v>
+        <v>674</v>
       </c>
       <c r="G391" t="n">
         <v>2</v>
@@ -15018,10 +14928,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>693</v>
+        <v>675</v>
       </c>
       <c r="F392" t="s">
-        <v>694</v>
+        <v>676</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -15047,10 +14957,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>695</v>
+        <v>677</v>
       </c>
       <c r="F393" t="s">
-        <v>696</v>
+        <v>678</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -15076,10 +14986,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>697</v>
+        <v>679</v>
       </c>
       <c r="F394" t="s">
-        <v>698</v>
+        <v>680</v>
       </c>
       <c r="G394" t="n">
         <v>2</v>
@@ -15105,10 +15015,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>699</v>
+        <v>681</v>
       </c>
       <c r="F395" t="s">
-        <v>700</v>
+        <v>682</v>
       </c>
       <c r="G395" t="n">
         <v>2</v>
@@ -15134,10 +15044,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>701</v>
+        <v>683</v>
       </c>
       <c r="F396" t="s">
-        <v>702</v>
+        <v>684</v>
       </c>
       <c r="G396" t="n">
         <v>3</v>
@@ -15163,10 +15073,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>703</v>
+        <v>685</v>
       </c>
       <c r="F397" t="s">
-        <v>704</v>
+        <v>686</v>
       </c>
       <c r="G397" t="n">
         <v>3</v>
@@ -15192,10 +15102,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>705</v>
+        <v>687</v>
       </c>
       <c r="F398" t="s">
-        <v>706</v>
+        <v>688</v>
       </c>
       <c r="G398" t="n">
         <v>4</v>
@@ -15221,10 +15131,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>707</v>
+        <v>689</v>
       </c>
       <c r="F399" t="s">
-        <v>708</v>
+        <v>690</v>
       </c>
       <c r="G399" t="n">
         <v>3</v>
@@ -15250,10 +15160,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>709</v>
+        <v>691</v>
       </c>
       <c r="F400" t="s">
-        <v>710</v>
+        <v>692</v>
       </c>
       <c r="G400" t="n">
         <v>4</v>
@@ -15279,10 +15189,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>711</v>
+        <v>693</v>
       </c>
       <c r="F401" t="s">
-        <v>712</v>
+        <v>694</v>
       </c>
       <c r="G401" t="n">
         <v>3</v>
@@ -15308,10 +15218,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>713</v>
+        <v>695</v>
       </c>
       <c r="F402" t="s">
-        <v>714</v>
+        <v>696</v>
       </c>
       <c r="G402" t="n">
         <v>4</v>
@@ -15337,10 +15247,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>715</v>
+        <v>697</v>
       </c>
       <c r="F403" t="s">
-        <v>716</v>
+        <v>698</v>
       </c>
       <c r="G403" t="n">
         <v>3</v>
@@ -15366,10 +15276,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>717</v>
+        <v>699</v>
       </c>
       <c r="F404" t="s">
-        <v>718</v>
+        <v>700</v>
       </c>
       <c r="G404" t="n">
         <v>2</v>
@@ -15395,10 +15305,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>719</v>
+        <v>701</v>
       </c>
       <c r="F405" t="s">
-        <v>720</v>
+        <v>702</v>
       </c>
       <c r="G405" t="n">
         <v>2</v>
@@ -15424,10 +15334,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>721</v>
+        <v>703</v>
       </c>
       <c r="F406" t="s">
-        <v>722</v>
+        <v>704</v>
       </c>
       <c r="G406" t="n">
         <v>3</v>
@@ -15453,10 +15363,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>723</v>
+        <v>705</v>
       </c>
       <c r="F407" t="s">
-        <v>724</v>
+        <v>706</v>
       </c>
       <c r="G407" t="n">
         <v>4</v>
@@ -15482,10 +15392,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>725</v>
+        <v>707</v>
       </c>
       <c r="F408" t="s">
-        <v>726</v>
+        <v>708</v>
       </c>
       <c r="G408" t="n">
         <v>5</v>
@@ -15511,10 +15421,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>727</v>
+        <v>709</v>
       </c>
       <c r="F409" t="s">
-        <v>728</v>
+        <v>710</v>
       </c>
       <c r="G409" t="n">
         <v>2</v>
@@ -15540,10 +15450,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>729</v>
+        <v>711</v>
       </c>
       <c r="F410" t="s">
-        <v>730</v>
+        <v>712</v>
       </c>
       <c r="G410" t="n">
         <v>2</v>
@@ -15569,10 +15479,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>731</v>
+        <v>713</v>
       </c>
       <c r="F411" t="s">
-        <v>732</v>
+        <v>714</v>
       </c>
       <c r="G411" t="n">
         <v>2</v>
@@ -15598,10 +15508,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>733</v>
+        <v>715</v>
       </c>
       <c r="F412" t="s">
-        <v>734</v>
+        <v>716</v>
       </c>
       <c r="G412" t="n">
         <v>5</v>
@@ -15627,10 +15537,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>735</v>
+        <v>717</v>
       </c>
       <c r="F413" t="s">
-        <v>736</v>
+        <v>718</v>
       </c>
       <c r="G413" t="n">
         <v>5</v>
@@ -15656,10 +15566,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>737</v>
+        <v>719</v>
       </c>
       <c r="F414" t="s">
-        <v>738</v>
+        <v>720</v>
       </c>
       <c r="G414" t="n">
         <v>5</v>
@@ -15685,10 +15595,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>739</v>
+        <v>721</v>
       </c>
       <c r="F415" t="s">
-        <v>740</v>
+        <v>722</v>
       </c>
       <c r="G415" t="n">
         <v>6</v>
@@ -15714,10 +15624,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>741</v>
+        <v>723</v>
       </c>
       <c r="F416" t="s">
-        <v>742</v>
+        <v>724</v>
       </c>
       <c r="G416" t="n">
         <v>1</v>
@@ -15743,10 +15653,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>743</v>
+        <v>725</v>
       </c>
       <c r="F417" t="s">
-        <v>744</v>
+        <v>726</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -15772,10 +15682,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>745</v>
+        <v>727</v>
       </c>
       <c r="F418" t="s">
-        <v>746</v>
+        <v>728</v>
       </c>
       <c r="G418" t="n">
         <v>2</v>
@@ -15801,10 +15711,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>747</v>
+        <v>729</v>
       </c>
       <c r="F419" t="s">
-        <v>748</v>
+        <v>730</v>
       </c>
       <c r="G419" t="n">
         <v>5</v>
@@ -15830,10 +15740,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>749</v>
+        <v>731</v>
       </c>
       <c r="F420" t="s">
-        <v>750</v>
+        <v>732</v>
       </c>
       <c r="G420" t="n">
         <v>2</v>
@@ -15859,10 +15769,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>751</v>
+        <v>733</v>
       </c>
       <c r="F421" t="s">
-        <v>752</v>
+        <v>734</v>
       </c>
       <c r="G421" t="n">
         <v>5</v>
@@ -15888,10 +15798,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>753</v>
+        <v>735</v>
       </c>
       <c r="F422" t="s">
-        <v>754</v>
+        <v>736</v>
       </c>
       <c r="G422" t="n">
         <v>4</v>
@@ -15917,10 +15827,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>755</v>
+        <v>737</v>
       </c>
       <c r="F423" t="s">
-        <v>756</v>
+        <v>738</v>
       </c>
       <c r="G423" t="n">
         <v>2</v>
@@ -15946,10 +15856,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>757</v>
+        <v>739</v>
       </c>
       <c r="F424" t="s">
-        <v>758</v>
+        <v>740</v>
       </c>
       <c r="G424" t="n">
         <v>5</v>
@@ -15975,10 +15885,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>759</v>
+        <v>741</v>
       </c>
       <c r="F425" t="s">
-        <v>760</v>
+        <v>742</v>
       </c>
       <c r="G425" t="n">
         <v>3</v>
@@ -16004,10 +15914,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>761</v>
+        <v>743</v>
       </c>
       <c r="F426" t="s">
-        <v>762</v>
+        <v>744</v>
       </c>
       <c r="G426" t="n">
         <v>3</v>
@@ -16033,10 +15943,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>763</v>
+        <v>745</v>
       </c>
       <c r="F427" t="s">
-        <v>764</v>
+        <v>746</v>
       </c>
       <c r="G427" t="n">
         <v>2</v>
@@ -16062,10 +15972,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>765</v>
+        <v>747</v>
       </c>
       <c r="F428" t="s">
-        <v>766</v>
+        <v>748</v>
       </c>
       <c r="G428" t="n">
         <v>1</v>
@@ -16091,10 +16001,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>767</v>
+        <v>749</v>
       </c>
       <c r="F429" t="s">
-        <v>768</v>
+        <v>750</v>
       </c>
       <c r="G429" t="n">
         <v>1</v>
@@ -16120,10 +16030,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>769</v>
+        <v>751</v>
       </c>
       <c r="F430" t="s">
-        <v>770</v>
+        <v>752</v>
       </c>
       <c r="G430" t="n">
         <v>4</v>
@@ -16149,10 +16059,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>771</v>
+        <v>753</v>
       </c>
       <c r="F431" t="s">
-        <v>772</v>
+        <v>754</v>
       </c>
       <c r="G431" t="n">
         <v>1</v>
@@ -16178,10 +16088,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>773</v>
+        <v>755</v>
       </c>
       <c r="F432" t="s">
-        <v>774</v>
+        <v>756</v>
       </c>
       <c r="G432" t="n">
         <v>1</v>
@@ -16207,10 +16117,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>775</v>
+        <v>757</v>
       </c>
       <c r="F433" t="s">
-        <v>776</v>
+        <v>758</v>
       </c>
       <c r="G433" t="n">
         <v>2</v>
@@ -16236,10 +16146,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>777</v>
+        <v>759</v>
       </c>
       <c r="F434" t="s">
-        <v>778</v>
+        <v>760</v>
       </c>
       <c r="G434" t="n">
         <v>1</v>
@@ -16265,10 +16175,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>779</v>
+        <v>761</v>
       </c>
       <c r="F435" t="s">
-        <v>780</v>
+        <v>762</v>
       </c>
       <c r="G435" t="n">
         <v>2</v>
@@ -16294,10 +16204,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>781</v>
+        <v>763</v>
       </c>
       <c r="F436" t="s">
-        <v>782</v>
+        <v>764</v>
       </c>
       <c r="G436" t="n">
         <v>3</v>
@@ -16323,10 +16233,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>783</v>
+        <v>765</v>
       </c>
       <c r="F437" t="s">
-        <v>784</v>
+        <v>766</v>
       </c>
       <c r="G437" t="n">
         <v>3</v>
@@ -16352,10 +16262,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>785</v>
+        <v>767</v>
       </c>
       <c r="F438" t="s">
-        <v>786</v>
+        <v>768</v>
       </c>
       <c r="G438" t="n">
         <v>1</v>
@@ -16381,10 +16291,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>787</v>
+        <v>769</v>
       </c>
       <c r="F439" t="s">
-        <v>788</v>
+        <v>770</v>
       </c>
       <c r="G439" t="n">
         <v>1</v>
@@ -16410,10 +16320,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>789</v>
+        <v>771</v>
       </c>
       <c r="F440" t="s">
-        <v>790</v>
+        <v>772</v>
       </c>
       <c r="G440" t="n">
         <v>1</v>
@@ -16439,10 +16349,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>791</v>
+        <v>773</v>
       </c>
       <c r="F441" t="s">
-        <v>792</v>
+        <v>774</v>
       </c>
       <c r="G441" t="n">
         <v>1</v>
@@ -16468,10 +16378,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>793</v>
+        <v>775</v>
       </c>
       <c r="F442" t="s">
-        <v>794</v>
+        <v>776</v>
       </c>
       <c r="G442" t="n">
         <v>2</v>
@@ -16497,10 +16407,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>795</v>
+        <v>777</v>
       </c>
       <c r="F443" t="s">
-        <v>796</v>
+        <v>778</v>
       </c>
       <c r="G443" t="n">
         <v>2</v>
@@ -16526,10 +16436,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>797</v>
+        <v>779</v>
       </c>
       <c r="F444" t="s">
-        <v>798</v>
+        <v>780</v>
       </c>
       <c r="G444" t="n">
         <v>1</v>
@@ -16555,10 +16465,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>799</v>
+        <v>781</v>
       </c>
       <c r="F445" t="s">
-        <v>800</v>
+        <v>191</v>
       </c>
       <c r="G445" t="n">
         <v>4</v>
@@ -16584,10 +16494,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>801</v>
+        <v>782</v>
       </c>
       <c r="F446" t="s">
-        <v>802</v>
+        <v>783</v>
       </c>
       <c r="G446" t="n">
         <v>3</v>
@@ -16613,10 +16523,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>689</v>
+        <v>671</v>
       </c>
       <c r="F447" t="s">
-        <v>690</v>
+        <v>672</v>
       </c>
       <c r="G447" t="n">
         <v>1</v>
@@ -16642,10 +16552,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>763</v>
+        <v>745</v>
       </c>
       <c r="F448" t="s">
-        <v>764</v>
+        <v>746</v>
       </c>
       <c r="G448" t="n">
         <v>3</v>
@@ -16671,10 +16581,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>803</v>
+        <v>784</v>
       </c>
       <c r="F449" t="s">
-        <v>804</v>
+        <v>785</v>
       </c>
       <c r="G449" t="n">
         <v>4</v>
@@ -16700,10 +16610,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>805</v>
+        <v>786</v>
       </c>
       <c r="F450" t="s">
-        <v>806</v>
+        <v>787</v>
       </c>
       <c r="G450" t="n">
         <v>4</v>
@@ -16729,10 +16639,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>807</v>
+        <v>788</v>
       </c>
       <c r="F451" t="s">
-        <v>808</v>
+        <v>744</v>
       </c>
       <c r="G451" t="n">
         <v>1</v>
@@ -16758,10 +16668,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>809</v>
+        <v>789</v>
       </c>
       <c r="F452" t="s">
-        <v>810</v>
+        <v>688</v>
       </c>
       <c r="G452" t="n">
         <v>1</v>
@@ -16787,10 +16697,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>811</v>
+        <v>790</v>
       </c>
       <c r="F453" t="s">
-        <v>812</v>
+        <v>710</v>
       </c>
       <c r="G453" t="n">
         <v>1</v>
@@ -16816,10 +16726,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>813</v>
+        <v>791</v>
       </c>
       <c r="F454" t="s">
-        <v>814</v>
+        <v>682</v>
       </c>
       <c r="G454" t="n">
         <v>2</v>
@@ -16845,10 +16755,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>815</v>
+        <v>792</v>
       </c>
       <c r="F455" t="s">
-        <v>816</v>
+        <v>752</v>
       </c>
       <c r="G455" t="n">
         <v>4</v>
@@ -16874,10 +16784,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>817</v>
+        <v>793</v>
       </c>
       <c r="F456" t="s">
-        <v>818</v>
+        <v>712</v>
       </c>
       <c r="G456" t="n">
         <v>3</v>
@@ -16903,10 +16813,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>819</v>
+        <v>794</v>
       </c>
       <c r="F457" t="s">
-        <v>820</v>
+        <v>738</v>
       </c>
       <c r="G457" t="n">
         <v>1</v>
@@ -16932,10 +16842,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>821</v>
+        <v>795</v>
       </c>
       <c r="F458" t="s">
-        <v>822</v>
+        <v>692</v>
       </c>
       <c r="G458" t="n">
         <v>1</v>
@@ -16961,10 +16871,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>697</v>
+        <v>679</v>
       </c>
       <c r="F459" t="s">
-        <v>698</v>
+        <v>680</v>
       </c>
       <c r="G459" t="n">
         <v>1</v>
@@ -16990,10 +16900,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>823</v>
+        <v>796</v>
       </c>
       <c r="F460" t="s">
-        <v>824</v>
+        <v>797</v>
       </c>
       <c r="G460" t="n">
         <v>3</v>
@@ -17019,10 +16929,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>785</v>
+        <v>767</v>
       </c>
       <c r="F461" t="s">
-        <v>786</v>
+        <v>768</v>
       </c>
       <c r="G461" t="n">
         <v>1</v>
@@ -17048,10 +16958,10 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>743</v>
+        <v>725</v>
       </c>
       <c r="F462" t="s">
-        <v>744</v>
+        <v>726</v>
       </c>
       <c r="G462" t="n">
         <v>1</v>
@@ -17077,10 +16987,10 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>765</v>
+        <v>747</v>
       </c>
       <c r="F463" t="s">
-        <v>766</v>
+        <v>748</v>
       </c>
       <c r="G463" t="n">
         <v>2</v>
@@ -17106,10 +17016,10 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
-        <v>825</v>
+        <v>798</v>
       </c>
       <c r="F464" t="s">
-        <v>826</v>
+        <v>799</v>
       </c>
       <c r="G464" t="n">
         <v>1</v>
@@ -17135,10 +17045,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>827</v>
+        <v>800</v>
       </c>
       <c r="F465" t="s">
-        <v>828</v>
+        <v>801</v>
       </c>
       <c r="G465" t="n">
         <v>2</v>
@@ -17164,10 +17074,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
-        <v>771</v>
+        <v>753</v>
       </c>
       <c r="F466" t="s">
-        <v>772</v>
+        <v>754</v>
       </c>
       <c r="G466" t="n">
         <v>1</v>
@@ -17193,10 +17103,10 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
-        <v>829</v>
+        <v>802</v>
       </c>
       <c r="F467" t="s">
-        <v>830</v>
+        <v>803</v>
       </c>
       <c r="G467" t="n">
         <v>1</v>
@@ -17222,10 +17132,10 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
-        <v>777</v>
+        <v>759</v>
       </c>
       <c r="F468" t="s">
-        <v>778</v>
+        <v>760</v>
       </c>
       <c r="G468" t="n">
         <v>1</v>
@@ -17251,10 +17161,10 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
-        <v>831</v>
+        <v>804</v>
       </c>
       <c r="F469" t="s">
-        <v>832</v>
+        <v>805</v>
       </c>
       <c r="G469" t="n">
         <v>1</v>
@@ -17280,10 +17190,10 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
-        <v>833</v>
+        <v>806</v>
       </c>
       <c r="F470" t="s">
-        <v>834</v>
+        <v>807</v>
       </c>
       <c r="G470" t="n">
         <v>1</v>
@@ -17309,10 +17219,10 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
-        <v>835</v>
+        <v>808</v>
       </c>
       <c r="F471" t="s">
-        <v>836</v>
+        <v>809</v>
       </c>
       <c r="G471" t="n">
         <v>1</v>
@@ -17338,10 +17248,10 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
-        <v>837</v>
+        <v>810</v>
       </c>
       <c r="F472" t="s">
-        <v>838</v>
+        <v>811</v>
       </c>
       <c r="G472" t="n">
         <v>1</v>
@@ -17367,10 +17277,10 @@
         <v>472</v>
       </c>
       <c r="E473" t="s">
-        <v>839</v>
+        <v>812</v>
       </c>
       <c r="F473" t="s">
-        <v>840</v>
+        <v>813</v>
       </c>
       <c r="G473" t="n">
         <v>4</v>
@@ -17396,10 +17306,10 @@
         <v>473</v>
       </c>
       <c r="E474" t="s">
-        <v>841</v>
+        <v>814</v>
       </c>
       <c r="F474" t="s">
-        <v>842</v>
+        <v>815</v>
       </c>
       <c r="G474" t="n">
         <v>1</v>
@@ -17425,10 +17335,10 @@
         <v>474</v>
       </c>
       <c r="E475" t="s">
-        <v>843</v>
+        <v>816</v>
       </c>
       <c r="F475" t="s">
-        <v>844</v>
+        <v>817</v>
       </c>
       <c r="G475" t="n">
         <v>3</v>
@@ -17454,10 +17364,10 @@
         <v>475</v>
       </c>
       <c r="E476" t="s">
-        <v>845</v>
+        <v>818</v>
       </c>
       <c r="F476" t="s">
-        <v>846</v>
+        <v>819</v>
       </c>
       <c r="G476" t="n">
         <v>1</v>
@@ -17483,10 +17393,10 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
-        <v>847</v>
+        <v>820</v>
       </c>
       <c r="F477" t="s">
-        <v>848</v>
+        <v>821</v>
       </c>
       <c r="G477" t="n">
         <v>4</v>
@@ -17512,10 +17422,10 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
-        <v>849</v>
+        <v>822</v>
       </c>
       <c r="F478" t="s">
-        <v>850</v>
+        <v>823</v>
       </c>
       <c r="G478" t="n">
         <v>1</v>
@@ -17541,10 +17451,10 @@
         <v>478</v>
       </c>
       <c r="E479" t="s">
-        <v>851</v>
+        <v>824</v>
       </c>
       <c r="F479" t="s">
-        <v>852</v>
+        <v>825</v>
       </c>
       <c r="G479" t="n">
         <v>2</v>
@@ -17570,10 +17480,10 @@
         <v>479</v>
       </c>
       <c r="E480" t="s">
-        <v>853</v>
+        <v>826</v>
       </c>
       <c r="F480" t="s">
-        <v>854</v>
+        <v>827</v>
       </c>
       <c r="G480" t="n">
         <v>1</v>
@@ -17599,10 +17509,10 @@
         <v>480</v>
       </c>
       <c r="E481" t="s">
-        <v>855</v>
+        <v>828</v>
       </c>
       <c r="F481" t="s">
-        <v>856</v>
+        <v>829</v>
       </c>
       <c r="G481" t="n">
         <v>3</v>
@@ -17628,10 +17538,10 @@
         <v>481</v>
       </c>
       <c r="E482" t="s">
-        <v>857</v>
+        <v>830</v>
       </c>
       <c r="F482" t="s">
-        <v>858</v>
+        <v>831</v>
       </c>
       <c r="G482" t="n">
         <v>1</v>
@@ -17657,10 +17567,10 @@
         <v>482</v>
       </c>
       <c r="E483" t="s">
-        <v>859</v>
+        <v>832</v>
       </c>
       <c r="F483" t="s">
-        <v>860</v>
+        <v>833</v>
       </c>
       <c r="G483" t="n">
         <v>2</v>
@@ -17686,10 +17596,10 @@
         <v>483</v>
       </c>
       <c r="E484" t="s">
-        <v>861</v>
+        <v>834</v>
       </c>
       <c r="F484" t="s">
-        <v>862</v>
+        <v>835</v>
       </c>
       <c r="G484" t="n">
         <v>1</v>
@@ -17715,10 +17625,10 @@
         <v>484</v>
       </c>
       <c r="E485" t="s">
-        <v>863</v>
+        <v>836</v>
       </c>
       <c r="F485" t="s">
-        <v>864</v>
+        <v>837</v>
       </c>
       <c r="G485" t="n">
         <v>2</v>
@@ -17744,10 +17654,10 @@
         <v>485</v>
       </c>
       <c r="E486" t="s">
-        <v>865</v>
+        <v>838</v>
       </c>
       <c r="F486" t="s">
-        <v>866</v>
+        <v>839</v>
       </c>
       <c r="G486" t="n">
         <v>2</v>
@@ -17773,10 +17683,10 @@
         <v>486</v>
       </c>
       <c r="E487" t="s">
-        <v>867</v>
+        <v>840</v>
       </c>
       <c r="F487" t="s">
-        <v>868</v>
+        <v>841</v>
       </c>
       <c r="G487" t="n">
         <v>2</v>
@@ -17802,10 +17712,10 @@
         <v>487</v>
       </c>
       <c r="E488" t="s">
-        <v>869</v>
+        <v>842</v>
       </c>
       <c r="F488" t="s">
-        <v>870</v>
+        <v>843</v>
       </c>
       <c r="G488" t="n">
         <v>3</v>
@@ -17831,10 +17741,10 @@
         <v>488</v>
       </c>
       <c r="E489" t="s">
-        <v>871</v>
+        <v>844</v>
       </c>
       <c r="F489" t="s">
-        <v>872</v>
+        <v>845</v>
       </c>
       <c r="G489" t="n">
         <v>2</v>
@@ -17860,10 +17770,10 @@
         <v>489</v>
       </c>
       <c r="E490" t="s">
-        <v>873</v>
+        <v>846</v>
       </c>
       <c r="F490" t="s">
-        <v>874</v>
+        <v>847</v>
       </c>
       <c r="G490" t="n">
         <v>1</v>
@@ -17889,10 +17799,10 @@
         <v>490</v>
       </c>
       <c r="E491" t="s">
-        <v>875</v>
+        <v>848</v>
       </c>
       <c r="F491" t="s">
-        <v>876</v>
+        <v>849</v>
       </c>
       <c r="G491" t="n">
         <v>1</v>
@@ -17918,10 +17828,10 @@
         <v>491</v>
       </c>
       <c r="E492" t="s">
-        <v>877</v>
+        <v>850</v>
       </c>
       <c r="F492" t="s">
-        <v>878</v>
+        <v>851</v>
       </c>
       <c r="G492" t="n">
         <v>2</v>
@@ -17947,10 +17857,10 @@
         <v>492</v>
       </c>
       <c r="E493" t="s">
-        <v>879</v>
+        <v>852</v>
       </c>
       <c r="F493" t="s">
-        <v>880</v>
+        <v>853</v>
       </c>
       <c r="G493" t="n">
         <v>1</v>
@@ -17976,10 +17886,10 @@
         <v>493</v>
       </c>
       <c r="E494" t="s">
-        <v>881</v>
+        <v>854</v>
       </c>
       <c r="F494" t="s">
-        <v>882</v>
+        <v>855</v>
       </c>
       <c r="G494" t="n">
         <v>2</v>
@@ -18005,10 +17915,10 @@
         <v>494</v>
       </c>
       <c r="E495" t="s">
-        <v>883</v>
+        <v>856</v>
       </c>
       <c r="F495" t="s">
-        <v>884</v>
+        <v>857</v>
       </c>
       <c r="G495" t="n">
         <v>2</v>
@@ -18034,10 +17944,10 @@
         <v>495</v>
       </c>
       <c r="E496" t="s">
-        <v>885</v>
+        <v>858</v>
       </c>
       <c r="F496" t="s">
-        <v>886</v>
+        <v>859</v>
       </c>
       <c r="G496" t="n">
         <v>2</v>
@@ -18063,10 +17973,10 @@
         <v>496</v>
       </c>
       <c r="E497" t="s">
-        <v>887</v>
+        <v>860</v>
       </c>
       <c r="F497" t="s">
-        <v>888</v>
+        <v>861</v>
       </c>
       <c r="G497" t="n">
         <v>2</v>
@@ -18092,10 +18002,10 @@
         <v>497</v>
       </c>
       <c r="E498" t="s">
-        <v>889</v>
+        <v>862</v>
       </c>
       <c r="F498" t="s">
-        <v>890</v>
+        <v>863</v>
       </c>
       <c r="G498" t="n">
         <v>2</v>
@@ -18121,10 +18031,10 @@
         <v>498</v>
       </c>
       <c r="E499" t="s">
-        <v>891</v>
+        <v>864</v>
       </c>
       <c r="F499" t="s">
-        <v>892</v>
+        <v>865</v>
       </c>
       <c r="G499" t="n">
         <v>2</v>
@@ -18150,10 +18060,10 @@
         <v>499</v>
       </c>
       <c r="E500" t="s">
-        <v>893</v>
+        <v>866</v>
       </c>
       <c r="F500" t="s">
-        <v>894</v>
+        <v>867</v>
       </c>
       <c r="G500" t="n">
         <v>2</v>
@@ -18179,10 +18089,10 @@
         <v>500</v>
       </c>
       <c r="E501" t="s">
-        <v>895</v>
+        <v>868</v>
       </c>
       <c r="F501" t="s">
-        <v>896</v>
+        <v>869</v>
       </c>
       <c r="G501" t="n">
         <v>7</v>
@@ -18208,10 +18118,10 @@
         <v>501</v>
       </c>
       <c r="E502" t="s">
-        <v>897</v>
+        <v>870</v>
       </c>
       <c r="F502" t="s">
-        <v>898</v>
+        <v>871</v>
       </c>
       <c r="G502" t="n">
         <v>2</v>
@@ -18237,10 +18147,10 @@
         <v>502</v>
       </c>
       <c r="E503" t="s">
-        <v>899</v>
+        <v>872</v>
       </c>
       <c r="F503" t="s">
-        <v>900</v>
+        <v>873</v>
       </c>
       <c r="G503" t="n">
         <v>2</v>
@@ -18266,10 +18176,10 @@
         <v>503</v>
       </c>
       <c r="E504" t="s">
-        <v>853</v>
+        <v>826</v>
       </c>
       <c r="F504" t="s">
-        <v>854</v>
+        <v>827</v>
       </c>
       <c r="G504" t="n">
         <v>3</v>
@@ -18295,10 +18205,10 @@
         <v>504</v>
       </c>
       <c r="E505" t="s">
-        <v>901</v>
+        <v>874</v>
       </c>
       <c r="F505" t="s">
-        <v>902</v>
+        <v>875</v>
       </c>
       <c r="G505" t="n">
         <v>2</v>
@@ -18324,10 +18234,10 @@
         <v>505</v>
       </c>
       <c r="E506" t="s">
-        <v>903</v>
+        <v>876</v>
       </c>
       <c r="F506" t="s">
-        <v>904</v>
+        <v>877</v>
       </c>
       <c r="G506" t="n">
         <v>2</v>
@@ -18353,10 +18263,10 @@
         <v>506</v>
       </c>
       <c r="E507" t="s">
-        <v>905</v>
+        <v>878</v>
       </c>
       <c r="F507" t="s">
-        <v>906</v>
+        <v>879</v>
       </c>
       <c r="G507" t="n">
         <v>3</v>
@@ -18382,10 +18292,10 @@
         <v>507</v>
       </c>
       <c r="E508" t="s">
-        <v>907</v>
+        <v>880</v>
       </c>
       <c r="F508" t="s">
-        <v>908</v>
+        <v>881</v>
       </c>
       <c r="G508" t="n">
         <v>2</v>
@@ -18411,10 +18321,10 @@
         <v>508</v>
       </c>
       <c r="E509" t="s">
-        <v>849</v>
+        <v>822</v>
       </c>
       <c r="F509" t="s">
-        <v>850</v>
+        <v>823</v>
       </c>
       <c r="G509" t="n">
         <v>2</v>
@@ -18440,10 +18350,10 @@
         <v>509</v>
       </c>
       <c r="E510" t="s">
-        <v>747</v>
+        <v>729</v>
       </c>
       <c r="F510" t="s">
-        <v>748</v>
+        <v>730</v>
       </c>
       <c r="G510" t="n">
         <v>1</v>
@@ -18469,10 +18379,10 @@
         <v>510</v>
       </c>
       <c r="E511" t="s">
-        <v>909</v>
+        <v>882</v>
       </c>
       <c r="F511" t="s">
-        <v>910</v>
+        <v>883</v>
       </c>
       <c r="G511" t="n">
         <v>2</v>
@@ -18498,10 +18408,10 @@
         <v>511</v>
       </c>
       <c r="E512" t="s">
-        <v>911</v>
+        <v>884</v>
       </c>
       <c r="F512" t="s">
-        <v>912</v>
+        <v>885</v>
       </c>
       <c r="G512" t="n">
         <v>2</v>
@@ -18527,10 +18437,10 @@
         <v>512</v>
       </c>
       <c r="E513" t="s">
-        <v>913</v>
+        <v>886</v>
       </c>
       <c r="F513" t="s">
-        <v>914</v>
+        <v>887</v>
       </c>
       <c r="G513" t="n">
         <v>2</v>
@@ -18556,10 +18466,10 @@
         <v>513</v>
       </c>
       <c r="E514" t="s">
-        <v>915</v>
+        <v>888</v>
       </c>
       <c r="F514" t="s">
-        <v>916</v>
+        <v>889</v>
       </c>
       <c r="G514" t="n">
         <v>2</v>
@@ -18585,10 +18495,10 @@
         <v>514</v>
       </c>
       <c r="E515" t="s">
-        <v>917</v>
+        <v>890</v>
       </c>
       <c r="F515" t="s">
-        <v>918</v>
+        <v>891</v>
       </c>
       <c r="G515" t="n">
         <v>2</v>
@@ -18614,10 +18524,10 @@
         <v>515</v>
       </c>
       <c r="E516" t="s">
-        <v>919</v>
+        <v>892</v>
       </c>
       <c r="F516" t="s">
-        <v>920</v>
+        <v>893</v>
       </c>
       <c r="G516" t="n">
         <v>2</v>
@@ -18643,10 +18553,10 @@
         <v>516</v>
       </c>
       <c r="E517" t="s">
-        <v>921</v>
+        <v>894</v>
       </c>
       <c r="F517" t="s">
-        <v>922</v>
+        <v>895</v>
       </c>
       <c r="G517" t="n">
         <v>3</v>
@@ -18672,10 +18582,10 @@
         <v>517</v>
       </c>
       <c r="E518" t="s">
-        <v>923</v>
+        <v>896</v>
       </c>
       <c r="F518" t="s">
-        <v>924</v>
+        <v>897</v>
       </c>
       <c r="G518" t="n">
         <v>2</v>
@@ -18701,10 +18611,10 @@
         <v>518</v>
       </c>
       <c r="E519" t="s">
-        <v>925</v>
+        <v>898</v>
       </c>
       <c r="F519" t="s">
-        <v>926</v>
+        <v>899</v>
       </c>
       <c r="G519" t="n">
         <v>1</v>
@@ -18730,10 +18640,10 @@
         <v>519</v>
       </c>
       <c r="E520" t="s">
-        <v>765</v>
+        <v>747</v>
       </c>
       <c r="F520" t="s">
-        <v>766</v>
+        <v>748</v>
       </c>
       <c r="G520" t="n">
         <v>1</v>
@@ -18759,10 +18669,10 @@
         <v>520</v>
       </c>
       <c r="E521" t="s">
-        <v>927</v>
+        <v>900</v>
       </c>
       <c r="F521" t="s">
-        <v>928</v>
+        <v>901</v>
       </c>
       <c r="G521" t="n">
         <v>1</v>
@@ -18788,10 +18698,10 @@
         <v>521</v>
       </c>
       <c r="E522" t="s">
-        <v>929</v>
+        <v>902</v>
       </c>
       <c r="F522" t="s">
-        <v>930</v>
+        <v>903</v>
       </c>
       <c r="G522" t="n">
         <v>1</v>
@@ -18817,10 +18727,10 @@
         <v>522</v>
       </c>
       <c r="E523" t="s">
-        <v>931</v>
+        <v>904</v>
       </c>
       <c r="F523" t="s">
-        <v>932</v>
+        <v>905</v>
       </c>
       <c r="G523" t="n">
         <v>1</v>
@@ -18846,10 +18756,10 @@
         <v>523</v>
       </c>
       <c r="E524" t="s">
-        <v>933</v>
+        <v>906</v>
       </c>
       <c r="F524" t="s">
-        <v>934</v>
+        <v>907</v>
       </c>
       <c r="G524" t="n">
         <v>1</v>
@@ -18875,10 +18785,10 @@
         <v>524</v>
       </c>
       <c r="E525" t="s">
-        <v>935</v>
+        <v>908</v>
       </c>
       <c r="F525" t="s">
-        <v>936</v>
+        <v>909</v>
       </c>
       <c r="G525" t="n">
         <v>1</v>
@@ -18904,10 +18814,10 @@
         <v>525</v>
       </c>
       <c r="E526" t="s">
-        <v>937</v>
+        <v>910</v>
       </c>
       <c r="F526" t="s">
-        <v>938</v>
+        <v>911</v>
       </c>
       <c r="G526" t="n">
         <v>3</v>
@@ -18933,10 +18843,10 @@
         <v>526</v>
       </c>
       <c r="E527" t="s">
-        <v>939</v>
+        <v>912</v>
       </c>
       <c r="F527" t="s">
-        <v>940</v>
+        <v>913</v>
       </c>
       <c r="G527" t="n">
         <v>1</v>
@@ -18962,10 +18872,10 @@
         <v>527</v>
       </c>
       <c r="E528" t="s">
-        <v>941</v>
+        <v>914</v>
       </c>
       <c r="F528" t="s">
-        <v>942</v>
+        <v>915</v>
       </c>
       <c r="G528" t="n">
         <v>1</v>
@@ -18991,10 +18901,10 @@
         <v>528</v>
       </c>
       <c r="E529" t="s">
-        <v>943</v>
+        <v>916</v>
       </c>
       <c r="F529" t="s">
-        <v>944</v>
+        <v>917</v>
       </c>
       <c r="G529" t="n">
         <v>2</v>
@@ -19020,10 +18930,10 @@
         <v>529</v>
       </c>
       <c r="E530" t="s">
-        <v>945</v>
+        <v>918</v>
       </c>
       <c r="F530" t="s">
-        <v>946</v>
+        <v>919</v>
       </c>
       <c r="G530" t="n">
         <v>2</v>
@@ -19049,10 +18959,10 @@
         <v>530</v>
       </c>
       <c r="E531" t="s">
-        <v>947</v>
+        <v>920</v>
       </c>
       <c r="F531" t="s">
-        <v>948</v>
+        <v>921</v>
       </c>
       <c r="G531" t="n">
         <v>2</v>
@@ -19078,10 +18988,10 @@
         <v>531</v>
       </c>
       <c r="E532" t="s">
-        <v>949</v>
+        <v>922</v>
       </c>
       <c r="F532" t="s">
-        <v>950</v>
+        <v>923</v>
       </c>
       <c r="G532" t="n">
         <v>2</v>
@@ -19107,10 +19017,10 @@
         <v>532</v>
       </c>
       <c r="E533" t="s">
-        <v>951</v>
+        <v>924</v>
       </c>
       <c r="F533" t="s">
-        <v>952</v>
+        <v>925</v>
       </c>
       <c r="G533" t="n">
         <v>1</v>
@@ -19136,10 +19046,10 @@
         <v>533</v>
       </c>
       <c r="E534" t="s">
-        <v>953</v>
+        <v>926</v>
       </c>
       <c r="F534" t="s">
-        <v>954</v>
+        <v>927</v>
       </c>
       <c r="G534" t="n">
         <v>1</v>
@@ -19165,10 +19075,10 @@
         <v>534</v>
       </c>
       <c r="E535" t="s">
-        <v>955</v>
+        <v>928</v>
       </c>
       <c r="F535" t="s">
-        <v>956</v>
+        <v>929</v>
       </c>
       <c r="G535" t="n">
         <v>1</v>
@@ -19194,10 +19104,10 @@
         <v>535</v>
       </c>
       <c r="E536" t="s">
-        <v>957</v>
+        <v>930</v>
       </c>
       <c r="F536" t="s">
-        <v>958</v>
+        <v>931</v>
       </c>
       <c r="G536" t="n">
         <v>1</v>
@@ -19223,10 +19133,10 @@
         <v>536</v>
       </c>
       <c r="E537" t="s">
-        <v>959</v>
+        <v>932</v>
       </c>
       <c r="F537" t="s">
-        <v>960</v>
+        <v>933</v>
       </c>
       <c r="G537" t="n">
         <v>1</v>
@@ -19252,10 +19162,10 @@
         <v>537</v>
       </c>
       <c r="E538" t="s">
-        <v>961</v>
+        <v>934</v>
       </c>
       <c r="F538" t="s">
-        <v>962</v>
+        <v>935</v>
       </c>
       <c r="G538" t="n">
         <v>1</v>
@@ -19281,10 +19191,10 @@
         <v>538</v>
       </c>
       <c r="E539" t="s">
-        <v>963</v>
+        <v>936</v>
       </c>
       <c r="F539" t="s">
-        <v>964</v>
+        <v>937</v>
       </c>
       <c r="G539" t="n">
         <v>1</v>
@@ -19310,10 +19220,10 @@
         <v>539</v>
       </c>
       <c r="E540" t="s">
-        <v>965</v>
+        <v>938</v>
       </c>
       <c r="F540" t="s">
-        <v>966</v>
+        <v>694</v>
       </c>
       <c r="G540" t="n">
         <v>1</v>
@@ -19339,10 +19249,10 @@
         <v>540</v>
       </c>
       <c r="E541" t="s">
-        <v>967</v>
+        <v>939</v>
       </c>
       <c r="F541" t="s">
-        <v>968</v>
+        <v>940</v>
       </c>
       <c r="G541" t="n">
         <v>1</v>
@@ -19368,10 +19278,10 @@
         <v>541</v>
       </c>
       <c r="E542" t="s">
-        <v>969</v>
+        <v>941</v>
       </c>
       <c r="F542" t="s">
-        <v>970</v>
+        <v>942</v>
       </c>
       <c r="G542" t="n">
         <v>1</v>
@@ -19397,10 +19307,10 @@
         <v>542</v>
       </c>
       <c r="E543" t="s">
-        <v>971</v>
+        <v>943</v>
       </c>
       <c r="F543" t="s">
-        <v>972</v>
+        <v>944</v>
       </c>
       <c r="G543" t="n">
         <v>1</v>
@@ -19426,10 +19336,10 @@
         <v>543</v>
       </c>
       <c r="E544" t="s">
-        <v>973</v>
+        <v>945</v>
       </c>
       <c r="F544" t="s">
-        <v>974</v>
+        <v>899</v>
       </c>
       <c r="G544" t="n">
         <v>2</v>
@@ -19455,10 +19365,10 @@
         <v>544</v>
       </c>
       <c r="E545" t="s">
-        <v>975</v>
+        <v>946</v>
       </c>
       <c r="F545" t="s">
-        <v>976</v>
+        <v>947</v>
       </c>
       <c r="G545" t="n">
         <v>1</v>
@@ -19484,10 +19394,10 @@
         <v>545</v>
       </c>
       <c r="E546" t="s">
-        <v>977</v>
+        <v>948</v>
       </c>
       <c r="F546" t="s">
-        <v>978</v>
+        <v>949</v>
       </c>
       <c r="G546" t="n">
         <v>1</v>
@@ -19513,10 +19423,10 @@
         <v>546</v>
       </c>
       <c r="E547" t="s">
-        <v>979</v>
+        <v>950</v>
       </c>
       <c r="F547" t="s">
-        <v>980</v>
+        <v>951</v>
       </c>
       <c r="G547" t="n">
         <v>1</v>
@@ -19542,10 +19452,10 @@
         <v>547</v>
       </c>
       <c r="E548" t="s">
-        <v>981</v>
+        <v>952</v>
       </c>
       <c r="F548" t="s">
-        <v>982</v>
+        <v>953</v>
       </c>
       <c r="G548" t="n">
         <v>1</v>
@@ -19571,10 +19481,10 @@
         <v>548</v>
       </c>
       <c r="E549" t="s">
-        <v>983</v>
+        <v>954</v>
       </c>
       <c r="F549" t="s">
-        <v>984</v>
+        <v>955</v>
       </c>
       <c r="G549" t="n">
         <v>2</v>
@@ -19600,10 +19510,10 @@
         <v>549</v>
       </c>
       <c r="E550" t="s">
-        <v>985</v>
+        <v>956</v>
       </c>
       <c r="F550" t="s">
-        <v>986</v>
+        <v>957</v>
       </c>
       <c r="G550" t="n">
         <v>1</v>
@@ -19629,10 +19539,10 @@
         <v>550</v>
       </c>
       <c r="E551" t="s">
-        <v>987</v>
+        <v>958</v>
       </c>
       <c r="F551" t="s">
-        <v>988</v>
+        <v>959</v>
       </c>
       <c r="G551" t="n">
         <v>1</v>
@@ -19658,10 +19568,10 @@
         <v>551</v>
       </c>
       <c r="E552" t="s">
-        <v>989</v>
+        <v>960</v>
       </c>
       <c r="F552" t="s">
-        <v>990</v>
+        <v>961</v>
       </c>
       <c r="G552" t="n">
         <v>1</v>
@@ -19687,10 +19597,10 @@
         <v>552</v>
       </c>
       <c r="E553" t="s">
-        <v>991</v>
+        <v>962</v>
       </c>
       <c r="F553" t="s">
-        <v>992</v>
+        <v>963</v>
       </c>
       <c r="G553" t="n">
         <v>1</v>
@@ -19716,10 +19626,10 @@
         <v>553</v>
       </c>
       <c r="E554" t="s">
-        <v>993</v>
+        <v>964</v>
       </c>
       <c r="F554" t="s">
-        <v>994</v>
+        <v>965</v>
       </c>
       <c r="G554" t="n">
         <v>1</v>
@@ -19745,10 +19655,10 @@
         <v>554</v>
       </c>
       <c r="E555" t="s">
-        <v>995</v>
+        <v>966</v>
       </c>
       <c r="F555" t="s">
-        <v>996</v>
+        <v>967</v>
       </c>
       <c r="G555" t="n">
         <v>1</v>
@@ -19774,10 +19684,10 @@
         <v>555</v>
       </c>
       <c r="E556" t="s">
-        <v>997</v>
+        <v>968</v>
       </c>
       <c r="F556" t="s">
-        <v>998</v>
+        <v>969</v>
       </c>
       <c r="G556" t="n">
         <v>1</v>
@@ -19803,10 +19713,10 @@
         <v>556</v>
       </c>
       <c r="E557" t="s">
-        <v>999</v>
+        <v>970</v>
       </c>
       <c r="F557" t="s">
-        <v>1000</v>
+        <v>971</v>
       </c>
       <c r="G557" t="n">
         <v>1</v>
@@ -19832,10 +19742,10 @@
         <v>557</v>
       </c>
       <c r="E558" t="s">
-        <v>1001</v>
+        <v>972</v>
       </c>
       <c r="F558" t="s">
-        <v>1002</v>
+        <v>973</v>
       </c>
       <c r="G558" t="n">
         <v>1</v>
@@ -19861,10 +19771,10 @@
         <v>558</v>
       </c>
       <c r="E559" t="s">
-        <v>1003</v>
+        <v>974</v>
       </c>
       <c r="F559" t="s">
-        <v>1004</v>
+        <v>975</v>
       </c>
       <c r="G559" t="n">
         <v>1</v>
@@ -19890,10 +19800,10 @@
         <v>559</v>
       </c>
       <c r="E560" t="s">
-        <v>1005</v>
+        <v>976</v>
       </c>
       <c r="F560" t="s">
-        <v>1006</v>
+        <v>977</v>
       </c>
       <c r="G560" t="n">
         <v>1</v>
@@ -19919,10 +19829,10 @@
         <v>560</v>
       </c>
       <c r="E561" t="s">
-        <v>941</v>
+        <v>914</v>
       </c>
       <c r="F561" t="s">
-        <v>942</v>
+        <v>915</v>
       </c>
       <c r="G561" t="n">
         <v>1</v>
@@ -19948,10 +19858,10 @@
         <v>561</v>
       </c>
       <c r="E562" t="s">
-        <v>1007</v>
+        <v>978</v>
       </c>
       <c r="F562" t="s">
-        <v>1008</v>
+        <v>979</v>
       </c>
       <c r="G562" t="n">
         <v>1</v>
@@ -19977,10 +19887,10 @@
         <v>562</v>
       </c>
       <c r="E563" t="s">
-        <v>1009</v>
+        <v>980</v>
       </c>
       <c r="F563" t="s">
-        <v>1010</v>
+        <v>981</v>
       </c>
       <c r="G563" t="n">
         <v>1</v>
@@ -20006,10 +19916,10 @@
         <v>563</v>
       </c>
       <c r="E564" t="s">
-        <v>1011</v>
+        <v>982</v>
       </c>
       <c r="F564" t="s">
-        <v>1012</v>
+        <v>983</v>
       </c>
       <c r="G564" t="n">
         <v>1</v>
@@ -20035,10 +19945,10 @@
         <v>564</v>
       </c>
       <c r="E565" t="s">
-        <v>1013</v>
+        <v>984</v>
       </c>
       <c r="F565" t="s">
-        <v>1014</v>
+        <v>985</v>
       </c>
       <c r="G565" t="n">
         <v>1</v>
@@ -20064,10 +19974,10 @@
         <v>565</v>
       </c>
       <c r="E566" t="s">
-        <v>1015</v>
+        <v>986</v>
       </c>
       <c r="F566" t="s">
-        <v>1016</v>
+        <v>987</v>
       </c>
       <c r="G566" t="n">
         <v>1</v>
@@ -20093,10 +20003,10 @@
         <v>566</v>
       </c>
       <c r="E567" t="s">
-        <v>1017</v>
+        <v>988</v>
       </c>
       <c r="F567" t="s">
-        <v>1018</v>
+        <v>989</v>
       </c>
       <c r="G567" t="n">
         <v>1</v>
@@ -20122,10 +20032,10 @@
         <v>567</v>
       </c>
       <c r="E568" t="s">
-        <v>1019</v>
+        <v>990</v>
       </c>
       <c r="F568" t="s">
-        <v>1020</v>
+        <v>991</v>
       </c>
       <c r="G568" t="n">
         <v>1</v>
@@ -20151,10 +20061,10 @@
         <v>568</v>
       </c>
       <c r="E569" t="s">
-        <v>1021</v>
+        <v>992</v>
       </c>
       <c r="F569" t="s">
-        <v>1022</v>
+        <v>993</v>
       </c>
       <c r="G569" t="n">
         <v>1</v>
@@ -20180,10 +20090,10 @@
         <v>569</v>
       </c>
       <c r="E570" t="s">
-        <v>1023</v>
+        <v>994</v>
       </c>
       <c r="F570" t="s">
-        <v>1024</v>
+        <v>995</v>
       </c>
       <c r="G570" t="n">
         <v>1</v>
@@ -20209,10 +20119,10 @@
         <v>570</v>
       </c>
       <c r="E571" t="s">
-        <v>1025</v>
+        <v>996</v>
       </c>
       <c r="F571" t="s">
-        <v>1026</v>
+        <v>997</v>
       </c>
       <c r="G571" t="n">
         <v>1</v>
@@ -20238,10 +20148,10 @@
         <v>571</v>
       </c>
       <c r="E572" t="s">
-        <v>1027</v>
+        <v>998</v>
       </c>
       <c r="F572" t="s">
-        <v>1028</v>
+        <v>999</v>
       </c>
       <c r="G572" t="n">
         <v>1</v>
@@ -20267,10 +20177,10 @@
         <v>572</v>
       </c>
       <c r="E573" t="s">
-        <v>1029</v>
+        <v>1000</v>
       </c>
       <c r="F573" t="s">
-        <v>1030</v>
+        <v>1001</v>
       </c>
       <c r="G573" t="n">
         <v>1</v>
@@ -20296,10 +20206,10 @@
         <v>573</v>
       </c>
       <c r="E574" t="s">
-        <v>1031</v>
+        <v>1002</v>
       </c>
       <c r="F574" t="s">
-        <v>1032</v>
+        <v>1003</v>
       </c>
       <c r="G574" t="n">
         <v>1</v>
@@ -20325,10 +20235,10 @@
         <v>574</v>
       </c>
       <c r="E575" t="s">
-        <v>1033</v>
+        <v>1004</v>
       </c>
       <c r="F575" t="s">
-        <v>1034</v>
+        <v>1005</v>
       </c>
       <c r="G575" t="n">
         <v>1</v>
@@ -20354,10 +20264,10 @@
         <v>575</v>
       </c>
       <c r="E576" t="s">
-        <v>1035</v>
+        <v>1006</v>
       </c>
       <c r="F576" t="s">
-        <v>1036</v>
+        <v>1007</v>
       </c>
       <c r="G576" t="n">
         <v>1</v>
@@ -20383,10 +20293,10 @@
         <v>576</v>
       </c>
       <c r="E577" t="s">
-        <v>755</v>
+        <v>737</v>
       </c>
       <c r="F577" t="s">
-        <v>756</v>
+        <v>738</v>
       </c>
       <c r="G577" t="n">
         <v>1</v>
@@ -20412,10 +20322,10 @@
         <v>577</v>
       </c>
       <c r="E578" t="s">
-        <v>1037</v>
+        <v>1008</v>
       </c>
       <c r="F578" t="s">
-        <v>1038</v>
+        <v>1009</v>
       </c>
       <c r="G578" t="n">
         <v>1</v>
@@ -20441,10 +20351,10 @@
         <v>578</v>
       </c>
       <c r="E579" t="s">
-        <v>1039</v>
+        <v>1010</v>
       </c>
       <c r="F579" t="s">
-        <v>1040</v>
+        <v>1011</v>
       </c>
       <c r="G579" t="n">
         <v>1</v>
@@ -20470,10 +20380,10 @@
         <v>579</v>
       </c>
       <c r="E580" t="s">
+        <v>188</v>
+      </c>
+      <c r="F580" t="s">
         <v>189</v>
-      </c>
-      <c r="F580" t="s">
-        <v>190</v>
       </c>
       <c r="G580" t="n">
         <v>4</v>
@@ -20499,10 +20409,10 @@
         <v>580</v>
       </c>
       <c r="E581" t="s">
-        <v>1041</v>
+        <v>1012</v>
       </c>
       <c r="F581" t="s">
-        <v>1042</v>
+        <v>1013</v>
       </c>
       <c r="G581" t="n">
         <v>1</v>
@@ -20528,10 +20438,10 @@
         <v>581</v>
       </c>
       <c r="E582" t="s">
-        <v>1043</v>
+        <v>1014</v>
       </c>
       <c r="F582" t="s">
-        <v>1044</v>
+        <v>1015</v>
       </c>
       <c r="G582" t="n">
         <v>1</v>
@@ -20557,10 +20467,10 @@
         <v>582</v>
       </c>
       <c r="E583" t="s">
-        <v>1045</v>
+        <v>1016</v>
       </c>
       <c r="F583" t="s">
-        <v>1046</v>
+        <v>1017</v>
       </c>
       <c r="G583" t="n">
         <v>1</v>
@@ -20586,10 +20496,10 @@
         <v>583</v>
       </c>
       <c r="E584" t="s">
-        <v>1047</v>
+        <v>1018</v>
       </c>
       <c r="F584" t="s">
-        <v>1048</v>
+        <v>1019</v>
       </c>
       <c r="G584" t="n">
         <v>1</v>
@@ -20615,10 +20525,10 @@
         <v>584</v>
       </c>
       <c r="E585" t="s">
-        <v>1049</v>
+        <v>1020</v>
       </c>
       <c r="F585" t="s">
-        <v>1050</v>
+        <v>1021</v>
       </c>
       <c r="G585" t="n">
         <v>1</v>
@@ -20644,10 +20554,10 @@
         <v>585</v>
       </c>
       <c r="E586" t="s">
-        <v>1051</v>
+        <v>1022</v>
       </c>
       <c r="F586" t="s">
-        <v>1052</v>
+        <v>1023</v>
       </c>
       <c r="G586" t="n">
         <v>1</v>
@@ -20673,10 +20583,10 @@
         <v>586</v>
       </c>
       <c r="E587" t="s">
-        <v>1053</v>
+        <v>1024</v>
       </c>
       <c r="F587" t="s">
-        <v>1054</v>
+        <v>1025</v>
       </c>
       <c r="G587" t="n">
         <v>1</v>
@@ -20702,10 +20612,10 @@
         <v>587</v>
       </c>
       <c r="E588" t="s">
-        <v>1055</v>
+        <v>1026</v>
       </c>
       <c r="F588" t="s">
-        <v>1056</v>
+        <v>1027</v>
       </c>
       <c r="G588" t="n">
         <v>1</v>
@@ -20731,10 +20641,10 @@
         <v>588</v>
       </c>
       <c r="E589" t="s">
-        <v>1057</v>
+        <v>1028</v>
       </c>
       <c r="F589" t="s">
-        <v>1058</v>
+        <v>1029</v>
       </c>
       <c r="G589" t="n">
         <v>1</v>
@@ -20760,10 +20670,10 @@
         <v>589</v>
       </c>
       <c r="E590" t="s">
-        <v>1059</v>
+        <v>1030</v>
       </c>
       <c r="F590" t="s">
-        <v>1060</v>
+        <v>1031</v>
       </c>
       <c r="G590" t="n">
         <v>1</v>
@@ -20789,10 +20699,10 @@
         <v>590</v>
       </c>
       <c r="E591" t="s">
-        <v>1061</v>
+        <v>1032</v>
       </c>
       <c r="F591" t="s">
-        <v>1062</v>
+        <v>1033</v>
       </c>
       <c r="G591" t="n">
         <v>1</v>
@@ -20818,10 +20728,10 @@
         <v>591</v>
       </c>
       <c r="E592" t="s">
-        <v>1063</v>
+        <v>1034</v>
       </c>
       <c r="F592" t="s">
-        <v>1064</v>
+        <v>1035</v>
       </c>
       <c r="G592" t="n">
         <v>1</v>
@@ -20847,10 +20757,10 @@
         <v>592</v>
       </c>
       <c r="E593" t="s">
-        <v>1065</v>
+        <v>1036</v>
       </c>
       <c r="F593" t="s">
-        <v>1066</v>
+        <v>1037</v>
       </c>
       <c r="G593" t="n">
         <v>1</v>
@@ -20876,10 +20786,10 @@
         <v>593</v>
       </c>
       <c r="E594" t="s">
-        <v>935</v>
+        <v>908</v>
       </c>
       <c r="F594" t="s">
-        <v>936</v>
+        <v>909</v>
       </c>
       <c r="G594" t="n">
         <v>1</v>
@@ -20905,10 +20815,10 @@
         <v>594</v>
       </c>
       <c r="E595" t="s">
-        <v>933</v>
+        <v>906</v>
       </c>
       <c r="F595" t="s">
-        <v>934</v>
+        <v>907</v>
       </c>
       <c r="G595" t="n">
         <v>1</v>
@@ -20934,10 +20844,10 @@
         <v>595</v>
       </c>
       <c r="E596" t="s">
-        <v>873</v>
+        <v>846</v>
       </c>
       <c r="F596" t="s">
-        <v>874</v>
+        <v>847</v>
       </c>
       <c r="G596" t="n">
         <v>2</v>
@@ -20963,10 +20873,10 @@
         <v>596</v>
       </c>
       <c r="E597" t="s">
-        <v>1067</v>
+        <v>1038</v>
       </c>
       <c r="F597" t="s">
-        <v>1068</v>
+        <v>1039</v>
       </c>
       <c r="G597" t="n">
         <v>5</v>
@@ -20992,10 +20902,10 @@
         <v>597</v>
       </c>
       <c r="E598" t="s">
-        <v>1069</v>
+        <v>1040</v>
       </c>
       <c r="F598" t="s">
-        <v>1070</v>
+        <v>933</v>
       </c>
       <c r="G598" t="n">
         <v>1</v>
@@ -21021,10 +20931,10 @@
         <v>598</v>
       </c>
       <c r="E599" t="s">
-        <v>1071</v>
+        <v>1041</v>
       </c>
       <c r="F599" t="s">
-        <v>1072</v>
+        <v>1042</v>
       </c>
       <c r="G599" t="n">
         <v>1</v>
@@ -21050,10 +20960,10 @@
         <v>599</v>
       </c>
       <c r="E600" t="s">
-        <v>1073</v>
+        <v>1043</v>
       </c>
       <c r="F600" t="s">
-        <v>1074</v>
+        <v>1044</v>
       </c>
       <c r="G600" t="n">
         <v>1</v>
@@ -21079,10 +20989,10 @@
         <v>600</v>
       </c>
       <c r="E601" t="s">
-        <v>1075</v>
+        <v>1045</v>
       </c>
       <c r="F601" t="s">
-        <v>1076</v>
+        <v>1046</v>
       </c>
       <c r="G601" t="n">
         <v>1</v>
@@ -21108,10 +21018,10 @@
         <v>601</v>
       </c>
       <c r="E602" t="s">
-        <v>1077</v>
+        <v>1047</v>
       </c>
       <c r="F602" t="s">
-        <v>1078</v>
+        <v>1048</v>
       </c>
       <c r="G602" t="n">
         <v>1</v>
@@ -21137,10 +21047,10 @@
         <v>602</v>
       </c>
       <c r="E603" t="s">
-        <v>1079</v>
+        <v>1049</v>
       </c>
       <c r="F603" t="s">
-        <v>1080</v>
+        <v>1050</v>
       </c>
       <c r="G603" t="n">
         <v>1</v>
@@ -21166,10 +21076,10 @@
         <v>603</v>
       </c>
       <c r="E604" t="s">
-        <v>1081</v>
+        <v>1051</v>
       </c>
       <c r="F604" t="s">
-        <v>1082</v>
+        <v>1052</v>
       </c>
       <c r="G604" t="n">
         <v>3</v>
@@ -21195,10 +21105,10 @@
         <v>604</v>
       </c>
       <c r="E605" t="s">
-        <v>1083</v>
+        <v>1053</v>
       </c>
       <c r="F605" t="s">
-        <v>1084</v>
+        <v>1054</v>
       </c>
       <c r="G605" t="n">
         <v>1</v>
@@ -21224,10 +21134,10 @@
         <v>605</v>
       </c>
       <c r="E606" t="s">
-        <v>1085</v>
+        <v>1055</v>
       </c>
       <c r="F606" t="s">
-        <v>1086</v>
+        <v>1056</v>
       </c>
       <c r="G606" t="n">
         <v>1</v>
@@ -21253,10 +21163,10 @@
         <v>606</v>
       </c>
       <c r="E607" t="s">
-        <v>1087</v>
+        <v>1057</v>
       </c>
       <c r="F607" t="s">
-        <v>1088</v>
+        <v>1058</v>
       </c>
       <c r="G607" t="n">
         <v>1</v>
@@ -21282,10 +21192,10 @@
         <v>607</v>
       </c>
       <c r="E608" t="s">
-        <v>1089</v>
+        <v>1059</v>
       </c>
       <c r="F608" t="s">
-        <v>1090</v>
+        <v>1060</v>
       </c>
       <c r="G608" t="n">
         <v>1</v>
@@ -21311,10 +21221,10 @@
         <v>608</v>
       </c>
       <c r="E609" t="s">
-        <v>1091</v>
+        <v>1061</v>
       </c>
       <c r="F609" t="s">
-        <v>1092</v>
+        <v>1062</v>
       </c>
       <c r="G609" t="n">
         <v>1</v>
@@ -21340,10 +21250,10 @@
         <v>609</v>
       </c>
       <c r="E610" t="s">
-        <v>1093</v>
+        <v>1063</v>
       </c>
       <c r="F610" t="s">
-        <v>1094</v>
+        <v>1064</v>
       </c>
       <c r="G610" t="n">
         <v>1</v>
@@ -21369,10 +21279,10 @@
         <v>610</v>
       </c>
       <c r="E611" t="s">
-        <v>1095</v>
+        <v>1065</v>
       </c>
       <c r="F611" t="s">
-        <v>1096</v>
+        <v>1066</v>
       </c>
       <c r="G611" t="n">
         <v>1</v>
@@ -21398,10 +21308,10 @@
         <v>611</v>
       </c>
       <c r="E612" t="s">
-        <v>1097</v>
+        <v>1067</v>
       </c>
       <c r="F612" t="s">
-        <v>1098</v>
+        <v>1068</v>
       </c>
       <c r="G612" t="n">
         <v>1</v>

--- a/xlsx/伊朗_intext.xlsx
+++ b/xlsx/伊朗_intext.xlsx
@@ -29,7 +29,7 @@
     <t>伊朗国旗</t>
   </si>
   <si>
-    <t>政策_政策_美國_伊朗</t>
+    <t>体育运动_体育运动_伊朗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%97%E5%9B%BD%E5%BE%BD</t>
@@ -3720,7 +3720,7 @@
         <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3749,7 +3749,7 @@
         <v>4</v>
       </c>
       <c r="I3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3778,7 +3778,7 @@
         <v>4</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3807,7 +3807,7 @@
         <v>4</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3836,7 +3836,7 @@
         <v>4</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3865,7 +3865,7 @@
         <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3894,7 +3894,7 @@
         <v>4</v>
       </c>
       <c r="I8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3923,7 +3923,7 @@
         <v>4</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3952,7 +3952,7 @@
         <v>4</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3981,7 +3981,7 @@
         <v>4</v>
       </c>
       <c r="I11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -4010,7 +4010,7 @@
         <v>4</v>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -4039,7 +4039,7 @@
         <v>4</v>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -4068,7 +4068,7 @@
         <v>4</v>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -4097,7 +4097,7 @@
         <v>4</v>
       </c>
       <c r="I15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -4126,7 +4126,7 @@
         <v>4</v>
       </c>
       <c r="I16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -4155,7 +4155,7 @@
         <v>4</v>
       </c>
       <c r="I17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -4184,7 +4184,7 @@
         <v>4</v>
       </c>
       <c r="I18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -4213,7 +4213,7 @@
         <v>4</v>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -4242,7 +4242,7 @@
         <v>4</v>
       </c>
       <c r="I20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -4271,7 +4271,7 @@
         <v>4</v>
       </c>
       <c r="I21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -4300,7 +4300,7 @@
         <v>4</v>
       </c>
       <c r="I22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -4329,7 +4329,7 @@
         <v>4</v>
       </c>
       <c r="I23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -4358,7 +4358,7 @@
         <v>4</v>
       </c>
       <c r="I24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -4387,7 +4387,7 @@
         <v>4</v>
       </c>
       <c r="I25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -4416,7 +4416,7 @@
         <v>4</v>
       </c>
       <c r="I26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -4445,7 +4445,7 @@
         <v>4</v>
       </c>
       <c r="I27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -4474,7 +4474,7 @@
         <v>4</v>
       </c>
       <c r="I28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -4503,7 +4503,7 @@
         <v>4</v>
       </c>
       <c r="I29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -4532,7 +4532,7 @@
         <v>4</v>
       </c>
       <c r="I30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -4561,7 +4561,7 @@
         <v>4</v>
       </c>
       <c r="I31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -4590,7 +4590,7 @@
         <v>4</v>
       </c>
       <c r="I32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -4619,7 +4619,7 @@
         <v>4</v>
       </c>
       <c r="I33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -4648,7 +4648,7 @@
         <v>4</v>
       </c>
       <c r="I34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -4677,7 +4677,7 @@
         <v>4</v>
       </c>
       <c r="I35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -4706,7 +4706,7 @@
         <v>4</v>
       </c>
       <c r="I36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -4735,7 +4735,7 @@
         <v>4</v>
       </c>
       <c r="I37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -4764,7 +4764,7 @@
         <v>4</v>
       </c>
       <c r="I38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -4793,7 +4793,7 @@
         <v>4</v>
       </c>
       <c r="I39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -4822,7 +4822,7 @@
         <v>4</v>
       </c>
       <c r="I40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -4851,7 +4851,7 @@
         <v>4</v>
       </c>
       <c r="I41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -4880,7 +4880,7 @@
         <v>4</v>
       </c>
       <c r="I42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -4909,7 +4909,7 @@
         <v>4</v>
       </c>
       <c r="I43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -4938,7 +4938,7 @@
         <v>4</v>
       </c>
       <c r="I44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -4967,7 +4967,7 @@
         <v>4</v>
       </c>
       <c r="I45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -4996,7 +4996,7 @@
         <v>4</v>
       </c>
       <c r="I46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -5025,7 +5025,7 @@
         <v>4</v>
       </c>
       <c r="I47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -5054,7 +5054,7 @@
         <v>4</v>
       </c>
       <c r="I48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -5083,7 +5083,7 @@
         <v>4</v>
       </c>
       <c r="I49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -5112,7 +5112,7 @@
         <v>4</v>
       </c>
       <c r="I50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -5141,7 +5141,7 @@
         <v>4</v>
       </c>
       <c r="I51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -5170,7 +5170,7 @@
         <v>4</v>
       </c>
       <c r="I52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -5199,7 +5199,7 @@
         <v>4</v>
       </c>
       <c r="I53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -5228,7 +5228,7 @@
         <v>4</v>
       </c>
       <c r="I54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -5257,7 +5257,7 @@
         <v>4</v>
       </c>
       <c r="I55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -5286,7 +5286,7 @@
         <v>4</v>
       </c>
       <c r="I56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -5315,7 +5315,7 @@
         <v>4</v>
       </c>
       <c r="I57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -5344,7 +5344,7 @@
         <v>4</v>
       </c>
       <c r="I58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -5373,7 +5373,7 @@
         <v>4</v>
       </c>
       <c r="I59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -5402,7 +5402,7 @@
         <v>4</v>
       </c>
       <c r="I60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -5431,7 +5431,7 @@
         <v>4</v>
       </c>
       <c r="I61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -5460,7 +5460,7 @@
         <v>4</v>
       </c>
       <c r="I62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -5489,7 +5489,7 @@
         <v>4</v>
       </c>
       <c r="I63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -5518,7 +5518,7 @@
         <v>4</v>
       </c>
       <c r="I64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -5547,7 +5547,7 @@
         <v>4</v>
       </c>
       <c r="I65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -5576,7 +5576,7 @@
         <v>4</v>
       </c>
       <c r="I66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -5605,7 +5605,7 @@
         <v>4</v>
       </c>
       <c r="I67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -5634,7 +5634,7 @@
         <v>4</v>
       </c>
       <c r="I68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -5663,7 +5663,7 @@
         <v>4</v>
       </c>
       <c r="I69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -5692,7 +5692,7 @@
         <v>4</v>
       </c>
       <c r="I70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -5721,7 +5721,7 @@
         <v>4</v>
       </c>
       <c r="I71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -5750,7 +5750,7 @@
         <v>4</v>
       </c>
       <c r="I72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -5779,7 +5779,7 @@
         <v>4</v>
       </c>
       <c r="I73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -5808,7 +5808,7 @@
         <v>4</v>
       </c>
       <c r="I74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -5837,7 +5837,7 @@
         <v>4</v>
       </c>
       <c r="I75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -5866,7 +5866,7 @@
         <v>4</v>
       </c>
       <c r="I76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -5895,7 +5895,7 @@
         <v>4</v>
       </c>
       <c r="I77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -5924,7 +5924,7 @@
         <v>4</v>
       </c>
       <c r="I78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -5953,7 +5953,7 @@
         <v>4</v>
       </c>
       <c r="I79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -5982,7 +5982,7 @@
         <v>4</v>
       </c>
       <c r="I80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -6011,7 +6011,7 @@
         <v>4</v>
       </c>
       <c r="I81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -6040,7 +6040,7 @@
         <v>4</v>
       </c>
       <c r="I82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -6069,7 +6069,7 @@
         <v>4</v>
       </c>
       <c r="I83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -6098,7 +6098,7 @@
         <v>4</v>
       </c>
       <c r="I84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -6127,7 +6127,7 @@
         <v>4</v>
       </c>
       <c r="I85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -6156,7 +6156,7 @@
         <v>4</v>
       </c>
       <c r="I86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -6185,7 +6185,7 @@
         <v>4</v>
       </c>
       <c r="I87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -6214,7 +6214,7 @@
         <v>4</v>
       </c>
       <c r="I88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -6243,7 +6243,7 @@
         <v>4</v>
       </c>
       <c r="I89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -6272,7 +6272,7 @@
         <v>4</v>
       </c>
       <c r="I90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -6301,7 +6301,7 @@
         <v>4</v>
       </c>
       <c r="I91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -6330,7 +6330,7 @@
         <v>4</v>
       </c>
       <c r="I92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -6359,7 +6359,7 @@
         <v>4</v>
       </c>
       <c r="I93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -6388,7 +6388,7 @@
         <v>4</v>
       </c>
       <c r="I94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -6417,7 +6417,7 @@
         <v>4</v>
       </c>
       <c r="I95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -6446,7 +6446,7 @@
         <v>4</v>
       </c>
       <c r="I96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -6475,7 +6475,7 @@
         <v>4</v>
       </c>
       <c r="I97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -6504,7 +6504,7 @@
         <v>4</v>
       </c>
       <c r="I98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -6533,7 +6533,7 @@
         <v>4</v>
       </c>
       <c r="I99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -6562,7 +6562,7 @@
         <v>4</v>
       </c>
       <c r="I100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -6591,7 +6591,7 @@
         <v>4</v>
       </c>
       <c r="I101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -6620,7 +6620,7 @@
         <v>4</v>
       </c>
       <c r="I102" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -6649,7 +6649,7 @@
         <v>4</v>
       </c>
       <c r="I103" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -6678,7 +6678,7 @@
         <v>4</v>
       </c>
       <c r="I104" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -6707,7 +6707,7 @@
         <v>4</v>
       </c>
       <c r="I105" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -6736,7 +6736,7 @@
         <v>4</v>
       </c>
       <c r="I106" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -6765,7 +6765,7 @@
         <v>4</v>
       </c>
       <c r="I107" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -6794,7 +6794,7 @@
         <v>4</v>
       </c>
       <c r="I108" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -6823,7 +6823,7 @@
         <v>4</v>
       </c>
       <c r="I109" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -6852,7 +6852,7 @@
         <v>4</v>
       </c>
       <c r="I110" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -6881,7 +6881,7 @@
         <v>4</v>
       </c>
       <c r="I111" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -6910,7 +6910,7 @@
         <v>4</v>
       </c>
       <c r="I112" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -6939,7 +6939,7 @@
         <v>4</v>
       </c>
       <c r="I113" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -6968,7 +6968,7 @@
         <v>4</v>
       </c>
       <c r="I114" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -6997,7 +6997,7 @@
         <v>4</v>
       </c>
       <c r="I115" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -7026,7 +7026,7 @@
         <v>4</v>
       </c>
       <c r="I116" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -7055,7 +7055,7 @@
         <v>4</v>
       </c>
       <c r="I117" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -7084,7 +7084,7 @@
         <v>4</v>
       </c>
       <c r="I118" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -7113,7 +7113,7 @@
         <v>4</v>
       </c>
       <c r="I119" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -7142,7 +7142,7 @@
         <v>4</v>
       </c>
       <c r="I120" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -7171,7 +7171,7 @@
         <v>4</v>
       </c>
       <c r="I121" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -7200,7 +7200,7 @@
         <v>4</v>
       </c>
       <c r="I122" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -7229,7 +7229,7 @@
         <v>4</v>
       </c>
       <c r="I123" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -7258,7 +7258,7 @@
         <v>4</v>
       </c>
       <c r="I124" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -7287,7 +7287,7 @@
         <v>4</v>
       </c>
       <c r="I125" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -7316,7 +7316,7 @@
         <v>4</v>
       </c>
       <c r="I126" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -7345,7 +7345,7 @@
         <v>4</v>
       </c>
       <c r="I127" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -7374,7 +7374,7 @@
         <v>4</v>
       </c>
       <c r="I128" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -7403,7 +7403,7 @@
         <v>4</v>
       </c>
       <c r="I129" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -7432,7 +7432,7 @@
         <v>4</v>
       </c>
       <c r="I130" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -7461,7 +7461,7 @@
         <v>4</v>
       </c>
       <c r="I131" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -7490,7 +7490,7 @@
         <v>4</v>
       </c>
       <c r="I132" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -7519,7 +7519,7 @@
         <v>4</v>
       </c>
       <c r="I133" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -7548,7 +7548,7 @@
         <v>4</v>
       </c>
       <c r="I134" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -7577,7 +7577,7 @@
         <v>4</v>
       </c>
       <c r="I135" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -7606,7 +7606,7 @@
         <v>4</v>
       </c>
       <c r="I136" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -7635,7 +7635,7 @@
         <v>4</v>
       </c>
       <c r="I137" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -7664,7 +7664,7 @@
         <v>4</v>
       </c>
       <c r="I138" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -7693,7 +7693,7 @@
         <v>4</v>
       </c>
       <c r="I139" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -7722,7 +7722,7 @@
         <v>4</v>
       </c>
       <c r="I140" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -7751,7 +7751,7 @@
         <v>4</v>
       </c>
       <c r="I141" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -7780,7 +7780,7 @@
         <v>4</v>
       </c>
       <c r="I142" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -7809,7 +7809,7 @@
         <v>4</v>
       </c>
       <c r="I143" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -7838,7 +7838,7 @@
         <v>4</v>
       </c>
       <c r="I144" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -7867,7 +7867,7 @@
         <v>4</v>
       </c>
       <c r="I145" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -7896,7 +7896,7 @@
         <v>4</v>
       </c>
       <c r="I146" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -7925,7 +7925,7 @@
         <v>4</v>
       </c>
       <c r="I147" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -7954,7 +7954,7 @@
         <v>4</v>
       </c>
       <c r="I148" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -7983,7 +7983,7 @@
         <v>4</v>
       </c>
       <c r="I149" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -8012,7 +8012,7 @@
         <v>4</v>
       </c>
       <c r="I150" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -8041,7 +8041,7 @@
         <v>4</v>
       </c>
       <c r="I151" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -8070,7 +8070,7 @@
         <v>4</v>
       </c>
       <c r="I152" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -8099,7 +8099,7 @@
         <v>4</v>
       </c>
       <c r="I153" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -8128,7 +8128,7 @@
         <v>4</v>
       </c>
       <c r="I154" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -8157,7 +8157,7 @@
         <v>4</v>
       </c>
       <c r="I155" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -8186,7 +8186,7 @@
         <v>4</v>
       </c>
       <c r="I156" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -8215,7 +8215,7 @@
         <v>4</v>
       </c>
       <c r="I157" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -8244,7 +8244,7 @@
         <v>4</v>
       </c>
       <c r="I158" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -8273,7 +8273,7 @@
         <v>4</v>
       </c>
       <c r="I159" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -8302,7 +8302,7 @@
         <v>4</v>
       </c>
       <c r="I160" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:9">
@@ -8331,7 +8331,7 @@
         <v>4</v>
       </c>
       <c r="I161" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -8360,7 +8360,7 @@
         <v>4</v>
       </c>
       <c r="I162" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -8389,7 +8389,7 @@
         <v>4</v>
       </c>
       <c r="I163" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -8418,7 +8418,7 @@
         <v>4</v>
       </c>
       <c r="I164" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -8447,7 +8447,7 @@
         <v>4</v>
       </c>
       <c r="I165" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -8476,7 +8476,7 @@
         <v>4</v>
       </c>
       <c r="I166" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -8505,7 +8505,7 @@
         <v>4</v>
       </c>
       <c r="I167" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:9">
@@ -8534,7 +8534,7 @@
         <v>4</v>
       </c>
       <c r="I168" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:9">
@@ -8563,7 +8563,7 @@
         <v>4</v>
       </c>
       <c r="I169" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:9">
@@ -8592,7 +8592,7 @@
         <v>4</v>
       </c>
       <c r="I170" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:9">
@@ -8621,7 +8621,7 @@
         <v>4</v>
       </c>
       <c r="I171" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:9">
@@ -8650,7 +8650,7 @@
         <v>4</v>
       </c>
       <c r="I172" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:9">
@@ -8679,7 +8679,7 @@
         <v>4</v>
       </c>
       <c r="I173" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:9">
@@ -8708,7 +8708,7 @@
         <v>4</v>
       </c>
       <c r="I174" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:9">
@@ -8737,7 +8737,7 @@
         <v>4</v>
       </c>
       <c r="I175" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:9">
@@ -8766,7 +8766,7 @@
         <v>4</v>
       </c>
       <c r="I176" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:9">
@@ -8795,7 +8795,7 @@
         <v>4</v>
       </c>
       <c r="I177" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:9">
@@ -8824,7 +8824,7 @@
         <v>4</v>
       </c>
       <c r="I178" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:9">
@@ -8853,7 +8853,7 @@
         <v>4</v>
       </c>
       <c r="I179" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:9">
@@ -8882,7 +8882,7 @@
         <v>4</v>
       </c>
       <c r="I180" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:9">
@@ -8911,7 +8911,7 @@
         <v>4</v>
       </c>
       <c r="I181" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:9">
@@ -8940,7 +8940,7 @@
         <v>4</v>
       </c>
       <c r="I182" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:9">
@@ -8969,7 +8969,7 @@
         <v>4</v>
       </c>
       <c r="I183" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:9">
@@ -8998,7 +8998,7 @@
         <v>4</v>
       </c>
       <c r="I184" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -9027,7 +9027,7 @@
         <v>4</v>
       </c>
       <c r="I185" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:9">
@@ -9056,7 +9056,7 @@
         <v>4</v>
       </c>
       <c r="I186" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -9085,7 +9085,7 @@
         <v>4</v>
       </c>
       <c r="I187" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:9">
@@ -9114,7 +9114,7 @@
         <v>4</v>
       </c>
       <c r="I188" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:9">
@@ -9143,7 +9143,7 @@
         <v>4</v>
       </c>
       <c r="I189" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:9">
@@ -9172,7 +9172,7 @@
         <v>4</v>
       </c>
       <c r="I190" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:9">
@@ -9201,7 +9201,7 @@
         <v>4</v>
       </c>
       <c r="I191" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -9230,7 +9230,7 @@
         <v>4</v>
       </c>
       <c r="I192" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:9">
@@ -9259,7 +9259,7 @@
         <v>4</v>
       </c>
       <c r="I193" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:9">
@@ -9288,7 +9288,7 @@
         <v>4</v>
       </c>
       <c r="I194" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:9">
@@ -9317,7 +9317,7 @@
         <v>4</v>
       </c>
       <c r="I195" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:9">
@@ -9346,7 +9346,7 @@
         <v>4</v>
       </c>
       <c r="I196" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:9">
@@ -9375,7 +9375,7 @@
         <v>4</v>
       </c>
       <c r="I197" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:9">
@@ -9404,7 +9404,7 @@
         <v>4</v>
       </c>
       <c r="I198" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:9">
@@ -9433,7 +9433,7 @@
         <v>4</v>
       </c>
       <c r="I199" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:9">
@@ -9462,7 +9462,7 @@
         <v>4</v>
       </c>
       <c r="I200" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:9">
@@ -9491,7 +9491,7 @@
         <v>4</v>
       </c>
       <c r="I201" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:9">
@@ -9520,7 +9520,7 @@
         <v>4</v>
       </c>
       <c r="I202" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:9">
@@ -9549,7 +9549,7 @@
         <v>4</v>
       </c>
       <c r="I203" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:9">
@@ -9578,7 +9578,7 @@
         <v>4</v>
       </c>
       <c r="I204" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:9">
@@ -9607,7 +9607,7 @@
         <v>4</v>
       </c>
       <c r="I205" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:9">
@@ -9636,7 +9636,7 @@
         <v>4</v>
       </c>
       <c r="I206" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:9">
@@ -9665,7 +9665,7 @@
         <v>4</v>
       </c>
       <c r="I207" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:9">
@@ -9694,7 +9694,7 @@
         <v>4</v>
       </c>
       <c r="I208" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:9">
@@ -9723,7 +9723,7 @@
         <v>4</v>
       </c>
       <c r="I209" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:9">
@@ -9752,7 +9752,7 @@
         <v>4</v>
       </c>
       <c r="I210" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:9">
@@ -9781,7 +9781,7 @@
         <v>4</v>
       </c>
       <c r="I211" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:9">
@@ -9810,7 +9810,7 @@
         <v>4</v>
       </c>
       <c r="I212" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:9">
@@ -9839,7 +9839,7 @@
         <v>4</v>
       </c>
       <c r="I213" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:9">
@@ -9868,7 +9868,7 @@
         <v>4</v>
       </c>
       <c r="I214" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:9">
@@ -9897,7 +9897,7 @@
         <v>4</v>
       </c>
       <c r="I215" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:9">
@@ -9926,7 +9926,7 @@
         <v>4</v>
       </c>
       <c r="I216" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:9">
@@ -9955,7 +9955,7 @@
         <v>4</v>
       </c>
       <c r="I217" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:9">
@@ -9984,7 +9984,7 @@
         <v>4</v>
       </c>
       <c r="I218" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:9">
@@ -10013,7 +10013,7 @@
         <v>4</v>
       </c>
       <c r="I219" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:9">
@@ -10042,7 +10042,7 @@
         <v>4</v>
       </c>
       <c r="I220" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:9">
@@ -10071,7 +10071,7 @@
         <v>4</v>
       </c>
       <c r="I221" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:9">
@@ -10100,7 +10100,7 @@
         <v>4</v>
       </c>
       <c r="I222" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:9">
@@ -10129,7 +10129,7 @@
         <v>4</v>
       </c>
       <c r="I223" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:9">
@@ -10158,7 +10158,7 @@
         <v>4</v>
       </c>
       <c r="I224" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:9">
@@ -10187,7 +10187,7 @@
         <v>4</v>
       </c>
       <c r="I225" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:9">
@@ -10216,7 +10216,7 @@
         <v>4</v>
       </c>
       <c r="I226" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:9">
@@ -10245,7 +10245,7 @@
         <v>4</v>
       </c>
       <c r="I227" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:9">
@@ -10274,7 +10274,7 @@
         <v>4</v>
       </c>
       <c r="I228" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:9">
@@ -10303,7 +10303,7 @@
         <v>4</v>
       </c>
       <c r="I229" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:9">
@@ -10332,7 +10332,7 @@
         <v>4</v>
       </c>
       <c r="I230" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:9">
@@ -10361,7 +10361,7 @@
         <v>4</v>
       </c>
       <c r="I231" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:9">
@@ -10390,7 +10390,7 @@
         <v>4</v>
       </c>
       <c r="I232" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:9">
@@ -10419,7 +10419,7 @@
         <v>4</v>
       </c>
       <c r="I233" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:9">
@@ -10448,7 +10448,7 @@
         <v>4</v>
       </c>
       <c r="I234" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:9">
@@ -10477,7 +10477,7 @@
         <v>4</v>
       </c>
       <c r="I235" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:9">
@@ -10506,7 +10506,7 @@
         <v>4</v>
       </c>
       <c r="I236" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:9">
@@ -10535,7 +10535,7 @@
         <v>4</v>
       </c>
       <c r="I237" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:9">
@@ -10564,7 +10564,7 @@
         <v>4</v>
       </c>
       <c r="I238" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:9">
@@ -10593,7 +10593,7 @@
         <v>4</v>
       </c>
       <c r="I239" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:9">
@@ -10622,7 +10622,7 @@
         <v>4</v>
       </c>
       <c r="I240" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:9">
@@ -10651,7 +10651,7 @@
         <v>4</v>
       </c>
       <c r="I241" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:9">
@@ -10680,7 +10680,7 @@
         <v>4</v>
       </c>
       <c r="I242" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:9">
@@ -10709,7 +10709,7 @@
         <v>4</v>
       </c>
       <c r="I243" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:9">
@@ -10738,7 +10738,7 @@
         <v>4</v>
       </c>
       <c r="I244" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:9">
@@ -10767,7 +10767,7 @@
         <v>4</v>
       </c>
       <c r="I245" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:9">
@@ -10796,7 +10796,7 @@
         <v>4</v>
       </c>
       <c r="I246" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:9">
@@ -10825,7 +10825,7 @@
         <v>4</v>
       </c>
       <c r="I247" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:9">
@@ -10854,7 +10854,7 @@
         <v>4</v>
       </c>
       <c r="I248" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:9">
@@ -10883,7 +10883,7 @@
         <v>4</v>
       </c>
       <c r="I249" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:9">
@@ -10912,7 +10912,7 @@
         <v>4</v>
       </c>
       <c r="I250" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:9">
@@ -10941,7 +10941,7 @@
         <v>4</v>
       </c>
       <c r="I251" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:9">
@@ -10970,7 +10970,7 @@
         <v>4</v>
       </c>
       <c r="I252" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:9">
@@ -10999,7 +10999,7 @@
         <v>4</v>
       </c>
       <c r="I253" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:9">
@@ -11028,7 +11028,7 @@
         <v>4</v>
       </c>
       <c r="I254" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:9">
@@ -11057,7 +11057,7 @@
         <v>4</v>
       </c>
       <c r="I255" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:9">
@@ -11086,7 +11086,7 @@
         <v>4</v>
       </c>
       <c r="I256" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:9">
@@ -11115,7 +11115,7 @@
         <v>4</v>
       </c>
       <c r="I257" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:9">
@@ -11144,7 +11144,7 @@
         <v>4</v>
       </c>
       <c r="I258" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:9">
@@ -11173,7 +11173,7 @@
         <v>4</v>
       </c>
       <c r="I259" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:9">
@@ -11202,7 +11202,7 @@
         <v>4</v>
       </c>
       <c r="I260" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:9">
@@ -11231,7 +11231,7 @@
         <v>4</v>
       </c>
       <c r="I261" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:9">
@@ -11260,7 +11260,7 @@
         <v>4</v>
       </c>
       <c r="I262" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:9">
@@ -11289,7 +11289,7 @@
         <v>4</v>
       </c>
       <c r="I263" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:9">
@@ -11318,7 +11318,7 @@
         <v>4</v>
       </c>
       <c r="I264" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:9">
@@ -11347,7 +11347,7 @@
         <v>4</v>
       </c>
       <c r="I265" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:9">
@@ -11376,7 +11376,7 @@
         <v>4</v>
       </c>
       <c r="I266" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:9">
@@ -11405,7 +11405,7 @@
         <v>4</v>
       </c>
       <c r="I267" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:9">
@@ -11434,7 +11434,7 @@
         <v>4</v>
       </c>
       <c r="I268" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:9">
@@ -11463,7 +11463,7 @@
         <v>4</v>
       </c>
       <c r="I269" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:9">
@@ -11492,7 +11492,7 @@
         <v>4</v>
       </c>
       <c r="I270" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:9">
@@ -11521,7 +11521,7 @@
         <v>4</v>
       </c>
       <c r="I271" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:9">
@@ -11550,7 +11550,7 @@
         <v>4</v>
       </c>
       <c r="I272" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:9">
@@ -11579,7 +11579,7 @@
         <v>4</v>
       </c>
       <c r="I273" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:9">
@@ -11608,7 +11608,7 @@
         <v>4</v>
       </c>
       <c r="I274" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:9">
@@ -11637,7 +11637,7 @@
         <v>4</v>
       </c>
       <c r="I275" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:9">
@@ -11666,7 +11666,7 @@
         <v>4</v>
       </c>
       <c r="I276" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:9">
@@ -11695,7 +11695,7 @@
         <v>4</v>
       </c>
       <c r="I277" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:9">
@@ -11724,7 +11724,7 @@
         <v>4</v>
       </c>
       <c r="I278" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:9">
@@ -11753,7 +11753,7 @@
         <v>4</v>
       </c>
       <c r="I279" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:9">
@@ -11782,7 +11782,7 @@
         <v>4</v>
       </c>
       <c r="I280" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:9">
@@ -11811,7 +11811,7 @@
         <v>4</v>
       </c>
       <c r="I281" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:9">
@@ -11840,7 +11840,7 @@
         <v>4</v>
       </c>
       <c r="I282" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:9">
@@ -11869,7 +11869,7 @@
         <v>4</v>
       </c>
       <c r="I283" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:9">
@@ -11898,7 +11898,7 @@
         <v>4</v>
       </c>
       <c r="I284" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:9">
@@ -11927,7 +11927,7 @@
         <v>4</v>
       </c>
       <c r="I285" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:9">
@@ -11956,7 +11956,7 @@
         <v>4</v>
       </c>
       <c r="I286" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:9">
@@ -11985,7 +11985,7 @@
         <v>4</v>
       </c>
       <c r="I287" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:9">
@@ -12014,7 +12014,7 @@
         <v>4</v>
       </c>
       <c r="I288" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:9">
@@ -12043,7 +12043,7 @@
         <v>4</v>
       </c>
       <c r="I289" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:9">
@@ -12072,7 +12072,7 @@
         <v>4</v>
       </c>
       <c r="I290" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:9">
@@ -12101,7 +12101,7 @@
         <v>4</v>
       </c>
       <c r="I291" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:9">
@@ -12130,7 +12130,7 @@
         <v>4</v>
       </c>
       <c r="I292" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:9">
@@ -12159,7 +12159,7 @@
         <v>4</v>
       </c>
       <c r="I293" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:9">
@@ -12188,7 +12188,7 @@
         <v>4</v>
       </c>
       <c r="I294" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:9">
@@ -12217,7 +12217,7 @@
         <v>4</v>
       </c>
       <c r="I295" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:9">
@@ -12246,7 +12246,7 @@
         <v>4</v>
       </c>
       <c r="I296" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:9">
@@ -12275,7 +12275,7 @@
         <v>4</v>
       </c>
       <c r="I297" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:9">
@@ -12304,7 +12304,7 @@
         <v>4</v>
       </c>
       <c r="I298" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:9">
@@ -12333,7 +12333,7 @@
         <v>4</v>
       </c>
       <c r="I299" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:9">
@@ -12362,7 +12362,7 @@
         <v>4</v>
       </c>
       <c r="I300" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:9">
@@ -12391,7 +12391,7 @@
         <v>4</v>
       </c>
       <c r="I301" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:9">
@@ -12420,7 +12420,7 @@
         <v>4</v>
       </c>
       <c r="I302" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:9">
@@ -12449,7 +12449,7 @@
         <v>4</v>
       </c>
       <c r="I303" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:9">
@@ -12478,7 +12478,7 @@
         <v>4</v>
       </c>
       <c r="I304" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:9">
@@ -12507,7 +12507,7 @@
         <v>4</v>
       </c>
       <c r="I305" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:9">
@@ -12536,7 +12536,7 @@
         <v>4</v>
       </c>
       <c r="I306" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:9">
@@ -12565,7 +12565,7 @@
         <v>4</v>
       </c>
       <c r="I307" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:9">
@@ -12594,7 +12594,7 @@
         <v>4</v>
       </c>
       <c r="I308" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:9">
@@ -12623,7 +12623,7 @@
         <v>4</v>
       </c>
       <c r="I309" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:9">
@@ -12652,7 +12652,7 @@
         <v>4</v>
       </c>
       <c r="I310" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:9">
@@ -12681,7 +12681,7 @@
         <v>4</v>
       </c>
       <c r="I311" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:9">
@@ -12710,7 +12710,7 @@
         <v>4</v>
       </c>
       <c r="I312" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:9">
@@ -12739,7 +12739,7 @@
         <v>4</v>
       </c>
       <c r="I313" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:9">
@@ -12768,7 +12768,7 @@
         <v>4</v>
       </c>
       <c r="I314" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:9">
@@ -12797,7 +12797,7 @@
         <v>4</v>
       </c>
       <c r="I315" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:9">
@@ -12826,7 +12826,7 @@
         <v>4</v>
       </c>
       <c r="I316" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:9">
@@ -12855,7 +12855,7 @@
         <v>4</v>
       </c>
       <c r="I317" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:9">
@@ -12884,7 +12884,7 @@
         <v>4</v>
       </c>
       <c r="I318" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:9">
@@ -12913,7 +12913,7 @@
         <v>4</v>
       </c>
       <c r="I319" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:9">
@@ -12942,7 +12942,7 @@
         <v>4</v>
       </c>
       <c r="I320" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:9">
@@ -12971,7 +12971,7 @@
         <v>4</v>
       </c>
       <c r="I321" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:9">
@@ -13000,7 +13000,7 @@
         <v>4</v>
       </c>
       <c r="I322" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:9">
@@ -13029,7 +13029,7 @@
         <v>4</v>
       </c>
       <c r="I323" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:9">
@@ -13058,7 +13058,7 @@
         <v>4</v>
       </c>
       <c r="I324" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:9">
@@ -13087,7 +13087,7 @@
         <v>4</v>
       </c>
       <c r="I325" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:9">
@@ -13116,7 +13116,7 @@
         <v>4</v>
       </c>
       <c r="I326" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:9">
@@ -13145,7 +13145,7 @@
         <v>4</v>
       </c>
       <c r="I327" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:9">
@@ -13174,7 +13174,7 @@
         <v>4</v>
       </c>
       <c r="I328" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:9">
@@ -13203,7 +13203,7 @@
         <v>4</v>
       </c>
       <c r="I329" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:9">
@@ -13232,7 +13232,7 @@
         <v>4</v>
       </c>
       <c r="I330" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:9">
@@ -13261,7 +13261,7 @@
         <v>4</v>
       </c>
       <c r="I331" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:9">
@@ -13290,7 +13290,7 @@
         <v>4</v>
       </c>
       <c r="I332" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:9">
@@ -13319,7 +13319,7 @@
         <v>4</v>
       </c>
       <c r="I333" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:9">
@@ -13348,7 +13348,7 @@
         <v>4</v>
       </c>
       <c r="I334" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:9">
@@ -13377,7 +13377,7 @@
         <v>4</v>
       </c>
       <c r="I335" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:9">
@@ -13406,7 +13406,7 @@
         <v>4</v>
       </c>
       <c r="I336" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:9">
@@ -13435,7 +13435,7 @@
         <v>4</v>
       </c>
       <c r="I337" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:9">
@@ -13464,7 +13464,7 @@
         <v>4</v>
       </c>
       <c r="I338" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:9">
@@ -13493,7 +13493,7 @@
         <v>4</v>
       </c>
       <c r="I339" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:9">
@@ -13522,7 +13522,7 @@
         <v>4</v>
       </c>
       <c r="I340" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:9">
@@ -13551,7 +13551,7 @@
         <v>4</v>
       </c>
       <c r="I341" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:9">
@@ -13580,7 +13580,7 @@
         <v>4</v>
       </c>
       <c r="I342" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:9">
@@ -13609,7 +13609,7 @@
         <v>4</v>
       </c>
       <c r="I343" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:9">
@@ -13638,7 +13638,7 @@
         <v>4</v>
       </c>
       <c r="I344" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:9">
@@ -13667,7 +13667,7 @@
         <v>4</v>
       </c>
       <c r="I345" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:9">
@@ -13696,7 +13696,7 @@
         <v>4</v>
       </c>
       <c r="I346" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:9">
@@ -13725,7 +13725,7 @@
         <v>4</v>
       </c>
       <c r="I347" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:9">
@@ -13754,7 +13754,7 @@
         <v>4</v>
       </c>
       <c r="I348" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:9">
@@ -13783,7 +13783,7 @@
         <v>4</v>
       </c>
       <c r="I349" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:9">
@@ -13812,7 +13812,7 @@
         <v>4</v>
       </c>
       <c r="I350" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:9">
@@ -13841,7 +13841,7 @@
         <v>4</v>
       </c>
       <c r="I351" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:9">
@@ -13870,7 +13870,7 @@
         <v>4</v>
       </c>
       <c r="I352" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:9">
@@ -13899,7 +13899,7 @@
         <v>4</v>
       </c>
       <c r="I353" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:9">
@@ -13928,7 +13928,7 @@
         <v>4</v>
       </c>
       <c r="I354" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:9">
@@ -13957,7 +13957,7 @@
         <v>4</v>
       </c>
       <c r="I355" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:9">
@@ -13986,7 +13986,7 @@
         <v>4</v>
       </c>
       <c r="I356" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:9">
@@ -14015,7 +14015,7 @@
         <v>4</v>
       </c>
       <c r="I357" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:9">
@@ -14044,7 +14044,7 @@
         <v>4</v>
       </c>
       <c r="I358" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:9">
@@ -14073,7 +14073,7 @@
         <v>4</v>
       </c>
       <c r="I359" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:9">
@@ -14102,7 +14102,7 @@
         <v>4</v>
       </c>
       <c r="I360" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:9">
@@ -14131,7 +14131,7 @@
         <v>4</v>
       </c>
       <c r="I361" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:9">
@@ -14160,7 +14160,7 @@
         <v>4</v>
       </c>
       <c r="I362" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:9">
@@ -14189,7 +14189,7 @@
         <v>4</v>
       </c>
       <c r="I363" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:9">
@@ -14218,7 +14218,7 @@
         <v>4</v>
       </c>
       <c r="I364" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:9">
@@ -14247,7 +14247,7 @@
         <v>4</v>
       </c>
       <c r="I365" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:9">
@@ -14276,7 +14276,7 @@
         <v>4</v>
       </c>
       <c r="I366" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:9">
@@ -14305,7 +14305,7 @@
         <v>4</v>
       </c>
       <c r="I367" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:9">
@@ -14334,7 +14334,7 @@
         <v>4</v>
       </c>
       <c r="I368" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:9">
@@ -14363,7 +14363,7 @@
         <v>4</v>
       </c>
       <c r="I369" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:9">
@@ -14392,7 +14392,7 @@
         <v>4</v>
       </c>
       <c r="I370" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:9">
@@ -14421,7 +14421,7 @@
         <v>4</v>
       </c>
       <c r="I371" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:9">
@@ -14450,7 +14450,7 @@
         <v>4</v>
       </c>
       <c r="I372" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:9">
@@ -14479,7 +14479,7 @@
         <v>4</v>
       </c>
       <c r="I373" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:9">
@@ -14508,7 +14508,7 @@
         <v>4</v>
       </c>
       <c r="I374" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:9">
@@ -14537,7 +14537,7 @@
         <v>4</v>
       </c>
       <c r="I375" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:9">
@@ -14566,7 +14566,7 @@
         <v>4</v>
       </c>
       <c r="I376" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:9">
@@ -14595,7 +14595,7 @@
         <v>4</v>
       </c>
       <c r="I377" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:9">
@@ -14624,7 +14624,7 @@
         <v>4</v>
       </c>
       <c r="I378" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:9">
@@ -14653,7 +14653,7 @@
         <v>4</v>
       </c>
       <c r="I379" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:9">
@@ -14682,7 +14682,7 @@
         <v>4</v>
       </c>
       <c r="I380" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:9">
@@ -14711,7 +14711,7 @@
         <v>4</v>
       </c>
       <c r="I381" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:9">
@@ -14740,7 +14740,7 @@
         <v>4</v>
       </c>
       <c r="I382" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:9">
@@ -14769,7 +14769,7 @@
         <v>4</v>
       </c>
       <c r="I383" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:9">
@@ -14798,7 +14798,7 @@
         <v>4</v>
       </c>
       <c r="I384" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:9">
@@ -14827,7 +14827,7 @@
         <v>4</v>
       </c>
       <c r="I385" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:9">
@@ -14856,7 +14856,7 @@
         <v>4</v>
       </c>
       <c r="I386" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:9">
@@ -14885,7 +14885,7 @@
         <v>4</v>
       </c>
       <c r="I387" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:9">
@@ -14914,7 +14914,7 @@
         <v>4</v>
       </c>
       <c r="I388" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:9">
@@ -14943,7 +14943,7 @@
         <v>4</v>
       </c>
       <c r="I389" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:9">
@@ -14972,7 +14972,7 @@
         <v>4</v>
       </c>
       <c r="I390" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:9">
@@ -15001,7 +15001,7 @@
         <v>4</v>
       </c>
       <c r="I391" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:9">
@@ -15030,7 +15030,7 @@
         <v>4</v>
       </c>
       <c r="I392" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:9">
@@ -15059,7 +15059,7 @@
         <v>4</v>
       </c>
       <c r="I393" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:9">
@@ -15088,7 +15088,7 @@
         <v>4</v>
       </c>
       <c r="I394" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:9">
@@ -15117,7 +15117,7 @@
         <v>4</v>
       </c>
       <c r="I395" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:9">
@@ -15146,7 +15146,7 @@
         <v>4</v>
       </c>
       <c r="I396" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:9">
@@ -15175,7 +15175,7 @@
         <v>4</v>
       </c>
       <c r="I397" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:9">
@@ -15204,7 +15204,7 @@
         <v>4</v>
       </c>
       <c r="I398" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:9">
@@ -15233,7 +15233,7 @@
         <v>4</v>
       </c>
       <c r="I399" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:9">
@@ -15262,7 +15262,7 @@
         <v>4</v>
       </c>
       <c r="I400" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:9">
@@ -15291,7 +15291,7 @@
         <v>4</v>
       </c>
       <c r="I401" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:9">
@@ -15320,7 +15320,7 @@
         <v>4</v>
       </c>
       <c r="I402" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:9">
@@ -15349,7 +15349,7 @@
         <v>4</v>
       </c>
       <c r="I403" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:9">
@@ -15378,7 +15378,7 @@
         <v>4</v>
       </c>
       <c r="I404" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:9">
@@ -15407,7 +15407,7 @@
         <v>4</v>
       </c>
       <c r="I405" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:9">
@@ -15436,7 +15436,7 @@
         <v>4</v>
       </c>
       <c r="I406" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:9">
@@ -15465,7 +15465,7 @@
         <v>4</v>
       </c>
       <c r="I407" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:9">
@@ -15494,7 +15494,7 @@
         <v>4</v>
       </c>
       <c r="I408" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:9">
@@ -15523,7 +15523,7 @@
         <v>4</v>
       </c>
       <c r="I409" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:9">
@@ -15552,7 +15552,7 @@
         <v>4</v>
       </c>
       <c r="I410" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:9">
@@ -15581,7 +15581,7 @@
         <v>4</v>
       </c>
       <c r="I411" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:9">
@@ -15610,7 +15610,7 @@
         <v>4</v>
       </c>
       <c r="I412" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:9">
@@ -15639,7 +15639,7 @@
         <v>4</v>
       </c>
       <c r="I413" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:9">
@@ -15668,7 +15668,7 @@
         <v>4</v>
       </c>
       <c r="I414" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:9">
@@ -15697,7 +15697,7 @@
         <v>4</v>
       </c>
       <c r="I415" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:9">
@@ -15726,7 +15726,7 @@
         <v>4</v>
       </c>
       <c r="I416" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:9">
@@ -15755,7 +15755,7 @@
         <v>4</v>
       </c>
       <c r="I417" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:9">
@@ -15784,7 +15784,7 @@
         <v>4</v>
       </c>
       <c r="I418" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:9">
@@ -15813,7 +15813,7 @@
         <v>4</v>
       </c>
       <c r="I419" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:9">
@@ -15842,7 +15842,7 @@
         <v>4</v>
       </c>
       <c r="I420" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:9">
@@ -15871,7 +15871,7 @@
         <v>4</v>
       </c>
       <c r="I421" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:9">
@@ -15900,7 +15900,7 @@
         <v>4</v>
       </c>
       <c r="I422" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:9">
@@ -15929,7 +15929,7 @@
         <v>4</v>
       </c>
       <c r="I423" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:9">
@@ -15958,7 +15958,7 @@
         <v>4</v>
       </c>
       <c r="I424" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:9">
@@ -15987,7 +15987,7 @@
         <v>4</v>
       </c>
       <c r="I425" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:9">
@@ -16016,7 +16016,7 @@
         <v>4</v>
       </c>
       <c r="I426" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:9">
@@ -16045,7 +16045,7 @@
         <v>4</v>
       </c>
       <c r="I427" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:9">
@@ -16074,7 +16074,7 @@
         <v>4</v>
       </c>
       <c r="I428" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:9">
@@ -16103,7 +16103,7 @@
         <v>4</v>
       </c>
       <c r="I429" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:9">
@@ -16132,7 +16132,7 @@
         <v>4</v>
       </c>
       <c r="I430" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:9">
@@ -16161,7 +16161,7 @@
         <v>4</v>
       </c>
       <c r="I431" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:9">
@@ -16190,7 +16190,7 @@
         <v>4</v>
       </c>
       <c r="I432" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:9">
@@ -16219,7 +16219,7 @@
         <v>4</v>
       </c>
       <c r="I433" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:9">
@@ -16248,7 +16248,7 @@
         <v>4</v>
       </c>
       <c r="I434" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:9">
@@ -16277,7 +16277,7 @@
         <v>4</v>
       </c>
       <c r="I435" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:9">
@@ -16306,7 +16306,7 @@
         <v>4</v>
       </c>
       <c r="I436" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:9">
@@ -16335,7 +16335,7 @@
         <v>4</v>
       </c>
       <c r="I437" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:9">
@@ -16364,7 +16364,7 @@
         <v>4</v>
       </c>
       <c r="I438" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:9">
@@ -16393,7 +16393,7 @@
         <v>4</v>
       </c>
       <c r="I439" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:9">
@@ -16422,7 +16422,7 @@
         <v>4</v>
       </c>
       <c r="I440" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441" spans="1:9">
@@ -16451,7 +16451,7 @@
         <v>4</v>
       </c>
       <c r="I441" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:9">
@@ -16480,7 +16480,7 @@
         <v>4</v>
       </c>
       <c r="I442" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:9">
@@ -16509,7 +16509,7 @@
         <v>4</v>
       </c>
       <c r="I443" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:9">
@@ -16538,7 +16538,7 @@
         <v>4</v>
       </c>
       <c r="I444" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:9">
@@ -16567,7 +16567,7 @@
         <v>4</v>
       </c>
       <c r="I445" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:9">
@@ -16596,7 +16596,7 @@
         <v>4</v>
       </c>
       <c r="I446" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:9">
@@ -16625,7 +16625,7 @@
         <v>4</v>
       </c>
       <c r="I447" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:9">
@@ -16654,7 +16654,7 @@
         <v>4</v>
       </c>
       <c r="I448" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:9">
@@ -16683,7 +16683,7 @@
         <v>4</v>
       </c>
       <c r="I449" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:9">
@@ -16712,7 +16712,7 @@
         <v>4</v>
       </c>
       <c r="I450" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:9">
@@ -16741,7 +16741,7 @@
         <v>4</v>
       </c>
       <c r="I451" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:9">
@@ -16770,7 +16770,7 @@
         <v>4</v>
       </c>
       <c r="I452" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:9">
@@ -16799,7 +16799,7 @@
         <v>4</v>
       </c>
       <c r="I453" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:9">
@@ -16828,7 +16828,7 @@
         <v>4</v>
       </c>
       <c r="I454" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:9">
@@ -16857,7 +16857,7 @@
         <v>4</v>
       </c>
       <c r="I455" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:9">
@@ -16886,7 +16886,7 @@
         <v>4</v>
       </c>
       <c r="I456" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:9">
@@ -16915,7 +16915,7 @@
         <v>4</v>
       </c>
       <c r="I457" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:9">
@@ -16944,7 +16944,7 @@
         <v>4</v>
       </c>
       <c r="I458" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:9">
@@ -16973,7 +16973,7 @@
         <v>4</v>
       </c>
       <c r="I459" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:9">
@@ -17002,7 +17002,7 @@
         <v>4</v>
       </c>
       <c r="I460" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:9">
@@ -17031,7 +17031,7 @@
         <v>4</v>
       </c>
       <c r="I461" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:9">
@@ -17060,7 +17060,7 @@
         <v>4</v>
       </c>
       <c r="I462" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:9">
@@ -17089,7 +17089,7 @@
         <v>4</v>
       </c>
       <c r="I463" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:9">
@@ -17118,7 +17118,7 @@
         <v>4</v>
       </c>
       <c r="I464" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465" spans="1:9">
@@ -17147,7 +17147,7 @@
         <v>4</v>
       </c>
       <c r="I465" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:9">
@@ -17176,7 +17176,7 @@
         <v>4</v>
       </c>
       <c r="I466" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:9">
@@ -17205,7 +17205,7 @@
         <v>4</v>
       </c>
       <c r="I467" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:9">
@@ -17234,7 +17234,7 @@
         <v>4</v>
       </c>
       <c r="I468" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:9">
@@ -17263,7 +17263,7 @@
         <v>4</v>
       </c>
       <c r="I469" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:9">
@@ -17292,7 +17292,7 @@
         <v>4</v>
       </c>
       <c r="I470" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:9">
@@ -17321,7 +17321,7 @@
         <v>4</v>
       </c>
       <c r="I471" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:9">
@@ -17350,7 +17350,7 @@
         <v>4</v>
       </c>
       <c r="I472" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:9">
@@ -17379,7 +17379,7 @@
         <v>4</v>
       </c>
       <c r="I473" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:9">
@@ -17408,7 +17408,7 @@
         <v>4</v>
       </c>
       <c r="I474" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:9">
@@ -17437,7 +17437,7 @@
         <v>4</v>
       </c>
       <c r="I475" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476" spans="1:9">
@@ -17466,7 +17466,7 @@
         <v>4</v>
       </c>
       <c r="I476" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477" spans="1:9">
@@ -17495,7 +17495,7 @@
         <v>4</v>
       </c>
       <c r="I477" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478" spans="1:9">
@@ -17524,7 +17524,7 @@
         <v>4</v>
       </c>
       <c r="I478" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479" spans="1:9">
@@ -17553,7 +17553,7 @@
         <v>4</v>
       </c>
       <c r="I479" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="480" spans="1:9">
@@ -17582,7 +17582,7 @@
         <v>4</v>
       </c>
       <c r="I480" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481" spans="1:9">
@@ -17611,7 +17611,7 @@
         <v>4</v>
       </c>
       <c r="I481" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="482" spans="1:9">
@@ -17640,7 +17640,7 @@
         <v>4</v>
       </c>
       <c r="I482" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:9">
@@ -17669,7 +17669,7 @@
         <v>4</v>
       </c>
       <c r="I483" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="484" spans="1:9">
@@ -17698,7 +17698,7 @@
         <v>4</v>
       </c>
       <c r="I484" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="485" spans="1:9">
@@ -17727,7 +17727,7 @@
         <v>4</v>
       </c>
       <c r="I485" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486" spans="1:9">
@@ -17756,7 +17756,7 @@
         <v>4</v>
       </c>
       <c r="I486" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="487" spans="1:9">
@@ -17785,7 +17785,7 @@
         <v>4</v>
       </c>
       <c r="I487" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488" spans="1:9">
@@ -17814,7 +17814,7 @@
         <v>4</v>
       </c>
       <c r="I488" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="489" spans="1:9">
@@ -17843,7 +17843,7 @@
         <v>4</v>
       </c>
       <c r="I489" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="490" spans="1:9">
@@ -17872,7 +17872,7 @@
         <v>4</v>
       </c>
       <c r="I490" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="491" spans="1:9">
@@ -17901,7 +17901,7 @@
         <v>4</v>
       </c>
       <c r="I491" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:9">
@@ -17930,7 +17930,7 @@
         <v>4</v>
       </c>
       <c r="I492" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:9">
@@ -17959,7 +17959,7 @@
         <v>4</v>
       </c>
       <c r="I493" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="494" spans="1:9">
@@ -17988,7 +17988,7 @@
         <v>4</v>
       </c>
       <c r="I494" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="495" spans="1:9">
@@ -18017,7 +18017,7 @@
         <v>4</v>
       </c>
       <c r="I495" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496" spans="1:9">
@@ -18046,7 +18046,7 @@
         <v>4</v>
       </c>
       <c r="I496" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="497" spans="1:9">
@@ -18075,7 +18075,7 @@
         <v>4</v>
       </c>
       <c r="I497" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:9">
@@ -18104,7 +18104,7 @@
         <v>4</v>
       </c>
       <c r="I498" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:9">
@@ -18133,7 +18133,7 @@
         <v>4</v>
       </c>
       <c r="I499" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500" spans="1:9">
@@ -18162,7 +18162,7 @@
         <v>4</v>
       </c>
       <c r="I500" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:9">
@@ -18191,7 +18191,7 @@
         <v>4</v>
       </c>
       <c r="I501" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502" spans="1:9">
@@ -18220,7 +18220,7 @@
         <v>4</v>
       </c>
       <c r="I502" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503" spans="1:9">
@@ -18249,7 +18249,7 @@
         <v>4</v>
       </c>
       <c r="I503" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504" spans="1:9">
@@ -18278,7 +18278,7 @@
         <v>4</v>
       </c>
       <c r="I504" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="505" spans="1:9">
@@ -18307,7 +18307,7 @@
         <v>4</v>
       </c>
       <c r="I505" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="506" spans="1:9">
@@ -18336,7 +18336,7 @@
         <v>4</v>
       </c>
       <c r="I506" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:9">
@@ -18365,7 +18365,7 @@
         <v>4</v>
       </c>
       <c r="I507" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:9">
@@ -18394,7 +18394,7 @@
         <v>4</v>
       </c>
       <c r="I508" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:9">
@@ -18423,7 +18423,7 @@
         <v>4</v>
       </c>
       <c r="I509" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:9">
@@ -18452,7 +18452,7 @@
         <v>4</v>
       </c>
       <c r="I510" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511" spans="1:9">
@@ -18481,7 +18481,7 @@
         <v>4</v>
       </c>
       <c r="I511" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:9">
@@ -18510,7 +18510,7 @@
         <v>4</v>
       </c>
       <c r="I512" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513" spans="1:9">
@@ -18539,7 +18539,7 @@
         <v>4</v>
       </c>
       <c r="I513" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="514" spans="1:9">
@@ -18568,7 +18568,7 @@
         <v>4</v>
       </c>
       <c r="I514" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="515" spans="1:9">
@@ -18597,7 +18597,7 @@
         <v>4</v>
       </c>
       <c r="I515" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516" spans="1:9">
@@ -18626,7 +18626,7 @@
         <v>4</v>
       </c>
       <c r="I516" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517" spans="1:9">
@@ -18655,7 +18655,7 @@
         <v>4</v>
       </c>
       <c r="I517" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="518" spans="1:9">
@@ -18684,7 +18684,7 @@
         <v>4</v>
       </c>
       <c r="I518" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519" spans="1:9">
@@ -18713,7 +18713,7 @@
         <v>4</v>
       </c>
       <c r="I519" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="520" spans="1:9">
@@ -18742,7 +18742,7 @@
         <v>4</v>
       </c>
       <c r="I520" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521" spans="1:9">
@@ -18771,7 +18771,7 @@
         <v>4</v>
       </c>
       <c r="I521" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:9">
@@ -18800,7 +18800,7 @@
         <v>4</v>
       </c>
       <c r="I522" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:9">
@@ -18829,7 +18829,7 @@
         <v>4</v>
       </c>
       <c r="I523" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:9">
@@ -18858,7 +18858,7 @@
         <v>4</v>
       </c>
       <c r="I524" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:9">
@@ -18887,7 +18887,7 @@
         <v>4</v>
       </c>
       <c r="I525" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:9">
@@ -18916,7 +18916,7 @@
         <v>4</v>
       </c>
       <c r="I526" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527" spans="1:9">
@@ -18945,7 +18945,7 @@
         <v>4</v>
       </c>
       <c r="I527" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:9">
@@ -18974,7 +18974,7 @@
         <v>4</v>
       </c>
       <c r="I528" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529" spans="1:9">
@@ -19003,7 +19003,7 @@
         <v>4</v>
       </c>
       <c r="I529" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:9">
@@ -19032,7 +19032,7 @@
         <v>4</v>
       </c>
       <c r="I530" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:9">
@@ -19061,7 +19061,7 @@
         <v>4</v>
       </c>
       <c r="I531" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532" spans="1:9">
@@ -19090,7 +19090,7 @@
         <v>4</v>
       </c>
       <c r="I532" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:9">
@@ -19119,7 +19119,7 @@
         <v>4</v>
       </c>
       <c r="I533" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:9">
@@ -19148,7 +19148,7 @@
         <v>4</v>
       </c>
       <c r="I534" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535" spans="1:9">
@@ -19177,7 +19177,7 @@
         <v>4</v>
       </c>
       <c r="I535" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536" spans="1:9">
@@ -19206,7 +19206,7 @@
         <v>4</v>
       </c>
       <c r="I536" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:9">
@@ -19235,7 +19235,7 @@
         <v>4</v>
       </c>
       <c r="I537" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538" spans="1:9">
@@ -19264,7 +19264,7 @@
         <v>4</v>
       </c>
       <c r="I538" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539" spans="1:9">
@@ -19293,7 +19293,7 @@
         <v>4</v>
       </c>
       <c r="I539" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540" spans="1:9">
@@ -19322,7 +19322,7 @@
         <v>4</v>
       </c>
       <c r="I540" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:9">
@@ -19351,7 +19351,7 @@
         <v>4</v>
       </c>
       <c r="I541" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:9">
@@ -19380,7 +19380,7 @@
         <v>4</v>
       </c>
       <c r="I542" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="543" spans="1:9">
@@ -19409,7 +19409,7 @@
         <v>4</v>
       </c>
       <c r="I543" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544" spans="1:9">
@@ -19438,7 +19438,7 @@
         <v>4</v>
       </c>
       <c r="I544" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="545" spans="1:9">
@@ -19467,7 +19467,7 @@
         <v>4</v>
       </c>
       <c r="I545" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546" spans="1:9">
@@ -19496,7 +19496,7 @@
         <v>4</v>
       </c>
       <c r="I546" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547" spans="1:9">
@@ -19525,7 +19525,7 @@
         <v>4</v>
       </c>
       <c r="I547" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548" spans="1:9">
@@ -19554,7 +19554,7 @@
         <v>4</v>
       </c>
       <c r="I548" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="549" spans="1:9">
@@ -19583,7 +19583,7 @@
         <v>4</v>
       </c>
       <c r="I549" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="550" spans="1:9">
@@ -19612,7 +19612,7 @@
         <v>4</v>
       </c>
       <c r="I550" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551" spans="1:9">
@@ -19641,7 +19641,7 @@
         <v>4</v>
       </c>
       <c r="I551" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="552" spans="1:9">
@@ -19670,7 +19670,7 @@
         <v>4</v>
       </c>
       <c r="I552" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="553" spans="1:9">
@@ -19699,7 +19699,7 @@
         <v>4</v>
       </c>
       <c r="I553" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="554" spans="1:9">
@@ -19728,7 +19728,7 @@
         <v>4</v>
       </c>
       <c r="I554" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="555" spans="1:9">
@@ -19757,7 +19757,7 @@
         <v>4</v>
       </c>
       <c r="I555" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="556" spans="1:9">
@@ -19786,7 +19786,7 @@
         <v>4</v>
       </c>
       <c r="I556" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="557" spans="1:9">
@@ -19815,7 +19815,7 @@
         <v>4</v>
       </c>
       <c r="I557" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="558" spans="1:9">
@@ -19844,7 +19844,7 @@
         <v>4</v>
       </c>
       <c r="I558" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="559" spans="1:9">
@@ -19873,7 +19873,7 @@
         <v>4</v>
       </c>
       <c r="I559" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="560" spans="1:9">
@@ -19902,7 +19902,7 @@
         <v>4</v>
       </c>
       <c r="I560" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="561" spans="1:9">
@@ -19931,7 +19931,7 @@
         <v>4</v>
       </c>
       <c r="I561" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="562" spans="1:9">
@@ -19960,7 +19960,7 @@
         <v>4</v>
       </c>
       <c r="I562" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="563" spans="1:9">
@@ -19989,7 +19989,7 @@
         <v>4</v>
       </c>
       <c r="I563" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="564" spans="1:9">
@@ -20018,7 +20018,7 @@
         <v>4</v>
       </c>
       <c r="I564" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="565" spans="1:9">
@@ -20047,7 +20047,7 @@
         <v>4</v>
       </c>
       <c r="I565" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="566" spans="1:9">
@@ -20076,7 +20076,7 @@
         <v>4</v>
       </c>
       <c r="I566" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="567" spans="1:9">
@@ -20105,7 +20105,7 @@
         <v>4</v>
       </c>
       <c r="I567" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="568" spans="1:9">
@@ -20134,7 +20134,7 @@
         <v>4</v>
       </c>
       <c r="I568" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="569" spans="1:9">
@@ -20163,7 +20163,7 @@
         <v>4</v>
       </c>
       <c r="I569" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="570" spans="1:9">
@@ -20192,7 +20192,7 @@
         <v>4</v>
       </c>
       <c r="I570" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="571" spans="1:9">
@@ -20221,7 +20221,7 @@
         <v>4</v>
       </c>
       <c r="I571" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="572" spans="1:9">
@@ -20250,7 +20250,7 @@
         <v>4</v>
       </c>
       <c r="I572" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="573" spans="1:9">
@@ -20279,7 +20279,7 @@
         <v>4</v>
       </c>
       <c r="I573" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="574" spans="1:9">
@@ -20308,7 +20308,7 @@
         <v>4</v>
       </c>
       <c r="I574" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="575" spans="1:9">
@@ -20337,7 +20337,7 @@
         <v>4</v>
       </c>
       <c r="I575" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="576" spans="1:9">
@@ -20366,7 +20366,7 @@
         <v>4</v>
       </c>
       <c r="I576" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="577" spans="1:9">
@@ -20395,7 +20395,7 @@
         <v>4</v>
       </c>
       <c r="I577" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="578" spans="1:9">
@@ -20424,7 +20424,7 @@
         <v>4</v>
       </c>
       <c r="I578" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="579" spans="1:9">
@@ -20453,7 +20453,7 @@
         <v>4</v>
       </c>
       <c r="I579" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="580" spans="1:9">
@@ -20482,7 +20482,7 @@
         <v>4</v>
       </c>
       <c r="I580" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="581" spans="1:9">
@@ -20511,7 +20511,7 @@
         <v>4</v>
       </c>
       <c r="I581" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="582" spans="1:9">
@@ -20540,7 +20540,7 @@
         <v>4</v>
       </c>
       <c r="I582" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="583" spans="1:9">
@@ -20569,7 +20569,7 @@
         <v>4</v>
       </c>
       <c r="I583" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="584" spans="1:9">
@@ -20598,7 +20598,7 @@
         <v>4</v>
       </c>
       <c r="I584" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="585" spans="1:9">
@@ -20627,7 +20627,7 @@
         <v>4</v>
       </c>
       <c r="I585" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="586" spans="1:9">
@@ -20656,7 +20656,7 @@
         <v>4</v>
       </c>
       <c r="I586" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="587" spans="1:9">
@@ -20685,7 +20685,7 @@
         <v>4</v>
       </c>
       <c r="I587" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="588" spans="1:9">
@@ -20714,7 +20714,7 @@
         <v>4</v>
       </c>
       <c r="I588" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="589" spans="1:9">
@@ -20743,7 +20743,7 @@
         <v>4</v>
       </c>
       <c r="I589" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="590" spans="1:9">
@@ -20772,7 +20772,7 @@
         <v>4</v>
       </c>
       <c r="I590" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="591" spans="1:9">
@@ -20801,7 +20801,7 @@
         <v>4</v>
       </c>
       <c r="I591" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="592" spans="1:9">
@@ -20830,7 +20830,7 @@
         <v>4</v>
       </c>
       <c r="I592" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="593" spans="1:9">
@@ -20859,7 +20859,7 @@
         <v>4</v>
       </c>
       <c r="I593" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="594" spans="1:9">
@@ -20888,7 +20888,7 @@
         <v>4</v>
       </c>
       <c r="I594" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="595" spans="1:9">
@@ -20917,7 +20917,7 @@
         <v>4</v>
       </c>
       <c r="I595" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="596" spans="1:9">
@@ -20946,7 +20946,7 @@
         <v>4</v>
       </c>
       <c r="I596" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="597" spans="1:9">
@@ -20975,7 +20975,7 @@
         <v>4</v>
       </c>
       <c r="I597" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="598" spans="1:9">
@@ -21004,7 +21004,7 @@
         <v>4</v>
       </c>
       <c r="I598" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="599" spans="1:9">
@@ -21033,7 +21033,7 @@
         <v>4</v>
       </c>
       <c r="I599" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="600" spans="1:9">
@@ -21062,7 +21062,7 @@
         <v>4</v>
       </c>
       <c r="I600" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="601" spans="1:9">
@@ -21091,7 +21091,7 @@
         <v>4</v>
       </c>
       <c r="I601" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="602" spans="1:9">
@@ -21120,7 +21120,7 @@
         <v>4</v>
       </c>
       <c r="I602" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="603" spans="1:9">
@@ -21149,7 +21149,7 @@
         <v>4</v>
       </c>
       <c r="I603" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="604" spans="1:9">
@@ -21178,7 +21178,7 @@
         <v>4</v>
       </c>
       <c r="I604" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="605" spans="1:9">
@@ -21207,7 +21207,7 @@
         <v>4</v>
       </c>
       <c r="I605" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="606" spans="1:9">
@@ -21236,7 +21236,7 @@
         <v>4</v>
       </c>
       <c r="I606" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="607" spans="1:9">
@@ -21265,7 +21265,7 @@
         <v>4</v>
       </c>
       <c r="I607" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="608" spans="1:9">
@@ -21294,7 +21294,7 @@
         <v>4</v>
       </c>
       <c r="I608" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="609" spans="1:9">
@@ -21323,7 +21323,7 @@
         <v>4</v>
       </c>
       <c r="I609" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="610" spans="1:9">
@@ -21352,7 +21352,7 @@
         <v>4</v>
       </c>
       <c r="I610" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="611" spans="1:9">
@@ -21381,7 +21381,7 @@
         <v>4</v>
       </c>
       <c r="I611" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="612" spans="1:9">
@@ -21410,7 +21410,7 @@
         <v>4</v>
       </c>
       <c r="I612" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
